--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6952,28 +6952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5781.39138637318</v>
+        <v>5979.095994059624</v>
       </c>
       <c r="AB2" t="n">
-        <v>7910.354751823186</v>
+        <v>8180.862918171509</v>
       </c>
       <c r="AC2" t="n">
-        <v>7155.401596561504</v>
+        <v>7400.092843174129</v>
       </c>
       <c r="AD2" t="n">
-        <v>5781391.38637318</v>
+        <v>5979095.994059624</v>
       </c>
       <c r="AE2" t="n">
-        <v>7910354.751823186</v>
+        <v>8180862.918171508</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.448841721097459e-07</v>
+        <v>9.211537280341756e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.18315972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>7155401.596561504</v>
+        <v>7400092.84317413</v>
       </c>
     </row>
     <row r="3">
@@ -7058,28 +7058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2718.975562425798</v>
+        <v>2843.778780680176</v>
       </c>
       <c r="AB3" t="n">
-        <v>3720.222317247164</v>
+        <v>3890.983586392214</v>
       </c>
       <c r="AC3" t="n">
-        <v>3365.16952065377</v>
+        <v>3519.633573936557</v>
       </c>
       <c r="AD3" t="n">
-        <v>2718975.562425798</v>
+        <v>2843778.780680176</v>
       </c>
       <c r="AE3" t="n">
-        <v>3720222.317247164</v>
+        <v>3890983.586392215</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.662500597728276e-07</v>
+        <v>1.464438706083119e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.38975694444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>3365169.52065377</v>
+        <v>3519633.573936557</v>
       </c>
     </row>
     <row r="4">
@@ -7164,28 +7164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2203.808937979373</v>
+        <v>2307.868528679161</v>
       </c>
       <c r="AB4" t="n">
-        <v>3015.348614132085</v>
+        <v>3157.727536912683</v>
       </c>
       <c r="AC4" t="n">
-        <v>2727.567974467565</v>
+        <v>2856.35845268805</v>
       </c>
       <c r="AD4" t="n">
-        <v>2203808.937979373</v>
+        <v>2307868.528679161</v>
       </c>
       <c r="AE4" t="n">
-        <v>3015348.614132084</v>
+        <v>3157727.536912683</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.909870806670393e-07</v>
+        <v>1.675312828881895e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.44704861111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>2727567.974467565</v>
+        <v>2856358.45268805</v>
       </c>
     </row>
     <row r="5">
@@ -7270,28 +7270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1992.446114158729</v>
+        <v>2096.420364003945</v>
       </c>
       <c r="AB5" t="n">
-        <v>2726.152673910822</v>
+        <v>2868.414829569214</v>
       </c>
       <c r="AC5" t="n">
-        <v>2465.972488892081</v>
+        <v>2594.657344080626</v>
       </c>
       <c r="AD5" t="n">
-        <v>1992446.114158729</v>
+        <v>2096420.364003945</v>
       </c>
       <c r="AE5" t="n">
-        <v>2726152.673910822</v>
+        <v>2868414.829569214</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.057930526760715e-06</v>
+        <v>1.788484045982736e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.15147569444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>2465972.488892081</v>
+        <v>2594657.344080626</v>
       </c>
     </row>
     <row r="6">
@@ -7376,28 +7376,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1872.273177636454</v>
+        <v>1965.918284131661</v>
       </c>
       <c r="AB6" t="n">
-        <v>2561.726760505258</v>
+        <v>2689.856126542525</v>
       </c>
       <c r="AC6" t="n">
-        <v>2317.239153888725</v>
+        <v>2433.14003306209</v>
       </c>
       <c r="AD6" t="n">
-        <v>1872273.177636454</v>
+        <v>1965918.284131661</v>
       </c>
       <c r="AE6" t="n">
-        <v>2561726.760505259</v>
+        <v>2689856.126542524</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.099291679647044e-06</v>
+        <v>1.858407127120354e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.43098958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2317239.153888726</v>
+        <v>2433140.03306209</v>
       </c>
     </row>
     <row r="7">
@@ -7482,28 +7482,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1787.448572596284</v>
+        <v>1891.422732932949</v>
       </c>
       <c r="AB7" t="n">
-        <v>2445.665993691834</v>
+        <v>2587.928026880678</v>
       </c>
       <c r="AC7" t="n">
-        <v>2212.255063767665</v>
+        <v>2340.939808174984</v>
       </c>
       <c r="AD7" t="n">
-        <v>1787448.572596284</v>
+        <v>1891422.732932949</v>
       </c>
       <c r="AE7" t="n">
-        <v>2445665.993691834</v>
+        <v>2587928.026880678</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.128608614198528e-06</v>
+        <v>1.907968859574557e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.95355902777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>2212255.063767666</v>
+        <v>2340939.808174984</v>
       </c>
     </row>
     <row r="8">
@@ -7588,28 +7588,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1738.106853553136</v>
+        <v>1831.837211394363</v>
       </c>
       <c r="AB8" t="n">
-        <v>2378.154476893985</v>
+        <v>2506.4004875839</v>
       </c>
       <c r="AC8" t="n">
-        <v>2151.186751379995</v>
+        <v>2267.19314280407</v>
       </c>
       <c r="AD8" t="n">
-        <v>1738106.853553136</v>
+        <v>1831837.211394363</v>
       </c>
       <c r="AE8" t="n">
-        <v>2378154.476893985</v>
+        <v>2506400.4875839</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.148588945389666e-06</v>
+        <v>1.941746600801307e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.64105902777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>2151186.751379995</v>
+        <v>2267193.14280407</v>
       </c>
     </row>
     <row r="9">
@@ -7694,28 +7694,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1697.919887996082</v>
+        <v>1791.479653636717</v>
       </c>
       <c r="AB9" t="n">
-        <v>2323.16889769503</v>
+        <v>2451.181496610099</v>
       </c>
       <c r="AC9" t="n">
-        <v>2101.448918687043</v>
+        <v>2217.244174828468</v>
       </c>
       <c r="AD9" t="n">
-        <v>1697919.887996081</v>
+        <v>1791479.653636717</v>
       </c>
       <c r="AE9" t="n">
-        <v>2323168.897695031</v>
+        <v>2451181.496610099</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.165021367303874e-06</v>
+        <v>1.969526425361625e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.39149305555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>2101448.918687043</v>
+        <v>2217244.174828468</v>
       </c>
     </row>
     <row r="10">
@@ -7800,28 +7800,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1666.456775213285</v>
+        <v>1760.01654085392</v>
       </c>
       <c r="AB10" t="n">
-        <v>2280.119678731037</v>
+        <v>2408.132277646105</v>
       </c>
       <c r="AC10" t="n">
-        <v>2062.508256761014</v>
+        <v>2178.303512902439</v>
       </c>
       <c r="AD10" t="n">
-        <v>1666456.775213285</v>
+        <v>1760016.54085392</v>
       </c>
       <c r="AE10" t="n">
-        <v>2280119.678731037</v>
+        <v>2408132.277646105</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.177439049773133e-06</v>
+        <v>1.990519133694138e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.20920138888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>2062508.256761014</v>
+        <v>2178303.512902439</v>
       </c>
     </row>
     <row r="11">
@@ -7906,28 +7906,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1640.066570530357</v>
+        <v>1723.382533675555</v>
       </c>
       <c r="AB11" t="n">
-        <v>2244.011436430193</v>
+        <v>2358.008012846333</v>
       </c>
       <c r="AC11" t="n">
-        <v>2029.846134427127</v>
+        <v>2132.96303758531</v>
       </c>
       <c r="AD11" t="n">
-        <v>1640066.570530357</v>
+        <v>1723382.533675555</v>
       </c>
       <c r="AE11" t="n">
-        <v>2244011.436430193</v>
+        <v>2358008.012846333</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.187615947435909e-06</v>
+        <v>2.007723684132062e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.06163194444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>2029846.134427127</v>
+        <v>2132963.03758531</v>
       </c>
     </row>
     <row r="12">
@@ -8012,28 +8012,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1607.743432651869</v>
+        <v>1701.388449638525</v>
       </c>
       <c r="AB12" t="n">
-        <v>2199.785493188644</v>
+        <v>2327.914736756361</v>
       </c>
       <c r="AC12" t="n">
-        <v>1989.84105313705</v>
+        <v>2105.741821529187</v>
       </c>
       <c r="AD12" t="n">
-        <v>1607743.432651869</v>
+        <v>1701388.449638525</v>
       </c>
       <c r="AE12" t="n">
-        <v>2199785.493188644</v>
+        <v>2327914.736756362</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.195645426325806e-06</v>
+        <v>2.021297916587672e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.94661458333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1989841.05313705</v>
+        <v>2105741.821529187</v>
       </c>
     </row>
     <row r="13">
@@ -8118,28 +8118,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1587.985762370721</v>
+        <v>1681.630779357376</v>
       </c>
       <c r="AB13" t="n">
-        <v>2172.752177063081</v>
+        <v>2300.881420630799</v>
       </c>
       <c r="AC13" t="n">
-        <v>1965.387758761013</v>
+        <v>2081.288527153151</v>
       </c>
       <c r="AD13" t="n">
-        <v>1587985.762370721</v>
+        <v>1681630.779357376</v>
       </c>
       <c r="AE13" t="n">
-        <v>2172752.177063081</v>
+        <v>2300881.420630799</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.202554512812462e-06</v>
+        <v>2.032978070095987e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.84895833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1965387.758761013</v>
+        <v>2081288.527153151</v>
       </c>
     </row>
     <row r="14">
@@ -8224,28 +8224,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1569.729944769258</v>
+        <v>1663.374961755914</v>
       </c>
       <c r="AB14" t="n">
-        <v>2147.773762030929</v>
+        <v>2275.903005598647</v>
       </c>
       <c r="AC14" t="n">
-        <v>1942.793248602104</v>
+        <v>2058.694016994242</v>
       </c>
       <c r="AD14" t="n">
-        <v>1569729.944769258</v>
+        <v>1663374.961755914</v>
       </c>
       <c r="AE14" t="n">
-        <v>2147773.762030929</v>
+        <v>2275903.005598647</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.208810037063893e-06</v>
+        <v>2.043553344218381e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.76215277777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>1942793.248602104</v>
+        <v>2058694.016994242</v>
       </c>
     </row>
     <row r="15">
@@ -8330,28 +8330,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1555.749451153513</v>
+        <v>1649.394468140169</v>
       </c>
       <c r="AB15" t="n">
-        <v>2128.645033890019</v>
+        <v>2256.774277457736</v>
       </c>
       <c r="AC15" t="n">
-        <v>1925.490139427624</v>
+        <v>2041.390907819761</v>
       </c>
       <c r="AD15" t="n">
-        <v>1555749.451153513</v>
+        <v>1649394.468140169</v>
       </c>
       <c r="AE15" t="n">
-        <v>2128645.033890019</v>
+        <v>2256774.277457736</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.213384972710462e-06</v>
+        <v>2.051287499919833e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.69921875</v>
       </c>
       <c r="AH15" t="n">
-        <v>1925490.139427624</v>
+        <v>2041390.907819761</v>
       </c>
     </row>
     <row r="16">
@@ -8436,28 +8436,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1539.28797369898</v>
+        <v>1632.932990685636</v>
       </c>
       <c r="AB16" t="n">
-        <v>2106.121714207596</v>
+        <v>2234.250957775314</v>
       </c>
       <c r="AC16" t="n">
-        <v>1905.116413764013</v>
+        <v>2021.017182156151</v>
       </c>
       <c r="AD16" t="n">
-        <v>1539287.97369898</v>
+        <v>1632932.990685635</v>
       </c>
       <c r="AE16" t="n">
-        <v>2106121.714207596</v>
+        <v>2234250.957775313</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.218240006457842e-06</v>
+        <v>2.059495175358109e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.63194444444444</v>
       </c>
       <c r="AH16" t="n">
-        <v>1905116.413764013</v>
+        <v>2021017.182156151</v>
       </c>
     </row>
     <row r="17">
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1526.2349844792</v>
+        <v>1619.880001465856</v>
       </c>
       <c r="AB17" t="n">
-        <v>2088.262038499851</v>
+        <v>2216.391282067569</v>
       </c>
       <c r="AC17" t="n">
-        <v>1888.961240439604</v>
+        <v>2004.862008831741</v>
       </c>
       <c r="AD17" t="n">
-        <v>1526234.9844792</v>
+        <v>1619880.001465856</v>
       </c>
       <c r="AE17" t="n">
-        <v>2088262.038499851</v>
+        <v>2216391.282067569</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.221881281768376e-06</v>
+        <v>2.065650931936815e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.58203125</v>
       </c>
       <c r="AH17" t="n">
-        <v>1888961.240439604</v>
+        <v>2004862.008831741</v>
       </c>
     </row>
     <row r="18">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1512.502927666433</v>
+        <v>1606.147944653089</v>
       </c>
       <c r="AB18" t="n">
-        <v>2069.473232553033</v>
+        <v>2197.60247612075</v>
       </c>
       <c r="AC18" t="n">
-        <v>1871.965611762095</v>
+        <v>1987.866380154232</v>
       </c>
       <c r="AD18" t="n">
-        <v>1512502.927666433</v>
+        <v>1606147.944653089</v>
       </c>
       <c r="AE18" t="n">
-        <v>2069473.232553032</v>
+        <v>2197602.47612075</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.225522557078911e-06</v>
+        <v>2.071806688515523e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.53211805555556</v>
       </c>
       <c r="AH18" t="n">
-        <v>1871965.611762095</v>
+        <v>1987866.380154232</v>
       </c>
     </row>
     <row r="19">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1502.106289691029</v>
+        <v>1585.336911981655</v>
       </c>
       <c r="AB19" t="n">
-        <v>2055.248093807789</v>
+        <v>2169.127903101731</v>
       </c>
       <c r="AC19" t="n">
-        <v>1859.098100293589</v>
+        <v>1962.109380419833</v>
       </c>
       <c r="AD19" t="n">
-        <v>1502106.289691029</v>
+        <v>1585336.911981655</v>
       </c>
       <c r="AE19" t="n">
-        <v>2055248.093807789</v>
+        <v>2169127.903101731</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.228136806019807e-06</v>
+        <v>2.076226206059209e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.49739583333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1859098.100293589</v>
+        <v>1962109.380419833</v>
       </c>
     </row>
     <row r="20">
@@ -8860,28 +8860,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1489.497480010837</v>
+        <v>1572.728102301463</v>
       </c>
       <c r="AB20" t="n">
-        <v>2037.996164141925</v>
+        <v>2151.875973435867</v>
       </c>
       <c r="AC20" t="n">
-        <v>1843.4926705818</v>
+        <v>1946.503950708045</v>
       </c>
       <c r="AD20" t="n">
-        <v>1489497.480010837</v>
+        <v>1572728.102301463</v>
       </c>
       <c r="AE20" t="n">
-        <v>2037996.164141925</v>
+        <v>2151875.973435867</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.230844420994308e-06</v>
+        <v>2.080803563515171e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.46267361111111</v>
       </c>
       <c r="AH20" t="n">
-        <v>1843492.6705818</v>
+        <v>1946503.950708045</v>
       </c>
     </row>
     <row r="21">
@@ -8966,28 +8966,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1477.995880172304</v>
+        <v>1561.22650246293</v>
       </c>
       <c r="AB21" t="n">
-        <v>2022.259167828072</v>
+        <v>2136.138977122014</v>
       </c>
       <c r="AC21" t="n">
-        <v>1829.257591109128</v>
+        <v>1932.268871235372</v>
       </c>
       <c r="AD21" t="n">
-        <v>1477995.880172304</v>
+        <v>1561226.50246293</v>
       </c>
       <c r="AE21" t="n">
-        <v>2022259.167828072</v>
+        <v>2136138.977122014</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.233178571834394e-06</v>
+        <v>2.084749561322034e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.43012152777778</v>
       </c>
       <c r="AH21" t="n">
-        <v>1829257.591109128</v>
+        <v>1932268.871235372</v>
       </c>
     </row>
     <row r="22">
@@ -9072,28 +9072,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1468.172477337266</v>
+        <v>1551.403099627892</v>
       </c>
       <c r="AB22" t="n">
-        <v>2008.818354691226</v>
+        <v>2122.698163985168</v>
       </c>
       <c r="AC22" t="n">
-        <v>1817.099550313763</v>
+        <v>1920.110830440008</v>
       </c>
       <c r="AD22" t="n">
-        <v>1468172.477337266</v>
+        <v>1551403.099627892</v>
       </c>
       <c r="AE22" t="n">
-        <v>2008818.354691226</v>
+        <v>2122698.163985168</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.23551272267448e-06</v>
+        <v>2.088695559128897e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.39973958333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1817099.550313763</v>
+        <v>1920110.830440008</v>
       </c>
     </row>
     <row r="23">
@@ -9178,28 +9178,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1456.672425922103</v>
+        <v>1539.903048212729</v>
       </c>
       <c r="AB23" t="n">
-        <v>1993.083476998537</v>
+        <v>2106.96328629248</v>
       </c>
       <c r="AC23" t="n">
-        <v>1802.866387264025</v>
+        <v>1905.87766739027</v>
       </c>
       <c r="AD23" t="n">
-        <v>1456672.425922103</v>
+        <v>1539903.048212729</v>
       </c>
       <c r="AE23" t="n">
-        <v>1993083.476998538</v>
+        <v>2106963.286292479</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.237846873514567e-06</v>
+        <v>2.092641556935761e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.3671875</v>
       </c>
       <c r="AH23" t="n">
-        <v>1802866.387264025</v>
+        <v>1905877.66739027</v>
       </c>
     </row>
     <row r="24">
@@ -9284,28 +9284,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1447.9555505623</v>
+        <v>1531.186172852926</v>
       </c>
       <c r="AB24" t="n">
-        <v>1981.156663569855</v>
+        <v>2095.036472863797</v>
       </c>
       <c r="AC24" t="n">
-        <v>1792.077852169589</v>
+        <v>1895.089132295833</v>
       </c>
       <c r="AD24" t="n">
-        <v>1447955.5505623</v>
+        <v>1531186.172852926</v>
       </c>
       <c r="AE24" t="n">
-        <v>1981156.663569855</v>
+        <v>2095036.472863797</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.239153997985015e-06</v>
+        <v>2.094851315707604e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.35199652777778</v>
       </c>
       <c r="AH24" t="n">
-        <v>1792077.852169589</v>
+        <v>1895089.132295833</v>
       </c>
     </row>
     <row r="25">
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1435.599413296801</v>
+        <v>1518.830035587427</v>
       </c>
       <c r="AB25" t="n">
-        <v>1964.250451448897</v>
+        <v>2078.130260742838</v>
       </c>
       <c r="AC25" t="n">
-        <v>1776.785145205436</v>
+        <v>1879.796425331681</v>
       </c>
       <c r="AD25" t="n">
-        <v>1435599.413296801</v>
+        <v>1518830.035587427</v>
       </c>
       <c r="AE25" t="n">
-        <v>1964250.451448897</v>
+        <v>2078130.260742838</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.241768246925912e-06</v>
+        <v>2.099270833251291e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.31727430555556</v>
       </c>
       <c r="AH25" t="n">
-        <v>1776785.145205437</v>
+        <v>1879796.425331681</v>
       </c>
     </row>
     <row r="26">
@@ -9496,28 +9496,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1424.028669326985</v>
+        <v>1507.25929161761</v>
       </c>
       <c r="AB26" t="n">
-        <v>1948.418849084196</v>
+        <v>2062.298658378138</v>
       </c>
       <c r="AC26" t="n">
-        <v>1762.464488750629</v>
+        <v>1865.475768876874</v>
       </c>
       <c r="AD26" t="n">
-        <v>1424028.669326985</v>
+        <v>1507259.29161761</v>
       </c>
       <c r="AE26" t="n">
-        <v>1948418.849084196</v>
+        <v>2062298.658378138</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.243168737429963e-06</v>
+        <v>2.101638431935409e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>16.29774305555556</v>
       </c>
       <c r="AH26" t="n">
-        <v>1762464.488750629</v>
+        <v>1865475.768876874</v>
       </c>
     </row>
     <row r="27">
@@ -9602,28 +9602,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1418.144294574028</v>
+        <v>1501.374916864654</v>
       </c>
       <c r="AB27" t="n">
-        <v>1940.367587946909</v>
+        <v>2054.247397240851</v>
       </c>
       <c r="AC27" t="n">
-        <v>1755.181628676269</v>
+        <v>1858.192908802513</v>
       </c>
       <c r="AD27" t="n">
-        <v>1418144.294574028</v>
+        <v>1501374.916864654</v>
       </c>
       <c r="AE27" t="n">
-        <v>1940367.587946909</v>
+        <v>2054247.397240851</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.244009031732395e-06</v>
+        <v>2.10305899114588e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>16.28689236111111</v>
       </c>
       <c r="AH27" t="n">
-        <v>1755181.628676269</v>
+        <v>1858192.908802513</v>
       </c>
     </row>
     <row r="28">
@@ -9708,28 +9708,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>1412.622587286063</v>
+        <v>1495.853209576688</v>
       </c>
       <c r="AB28" t="n">
-        <v>1932.812544434981</v>
+        <v>2046.692353728923</v>
       </c>
       <c r="AC28" t="n">
-        <v>1748.347627913549</v>
+        <v>1851.358908039794</v>
       </c>
       <c r="AD28" t="n">
-        <v>1412622.587286063</v>
+        <v>1495853.209576688</v>
       </c>
       <c r="AE28" t="n">
-        <v>1932812.544434981</v>
+        <v>2046692.353728923</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.245222790169239e-06</v>
+        <v>2.105110910005449e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>17</v>
+        <v>16.27170138888889</v>
       </c>
       <c r="AH28" t="n">
-        <v>1748347.627913549</v>
+        <v>1851358.908039794</v>
       </c>
     </row>
     <row r="29">
@@ -9814,28 +9814,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>1417.743422557513</v>
+        <v>1500.974044848139</v>
       </c>
       <c r="AB29" t="n">
-        <v>1939.819097168687</v>
+        <v>2053.698906462629</v>
       </c>
       <c r="AC29" t="n">
-        <v>1754.685485088109</v>
+        <v>1857.696765214353</v>
       </c>
       <c r="AD29" t="n">
-        <v>1417743.422557513</v>
+        <v>1500974.044848139</v>
       </c>
       <c r="AE29" t="n">
-        <v>1939819.097168687</v>
+        <v>2053698.906462629</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.245222790169239e-06</v>
+        <v>2.105110910005449e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>16.27170138888889</v>
       </c>
       <c r="AH29" t="n">
-        <v>1754685.485088109</v>
+        <v>1857696.765214353</v>
       </c>
     </row>
     <row r="30">
@@ -9920,28 +9920,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>1423.292694246096</v>
+        <v>1506.523316536722</v>
       </c>
       <c r="AB30" t="n">
-        <v>1947.411855509595</v>
+        <v>2061.291664803538</v>
       </c>
       <c r="AC30" t="n">
-        <v>1761.553601229465</v>
+        <v>1864.564881355709</v>
       </c>
       <c r="AD30" t="n">
-        <v>1423292.694246096</v>
+        <v>1506523.316536722</v>
       </c>
       <c r="AE30" t="n">
-        <v>1947411.855509595</v>
+        <v>2061291.664803537</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.245222790169239e-06</v>
+        <v>2.105110910005449e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>16.27170138888889</v>
       </c>
       <c r="AH30" t="n">
-        <v>1761553.601229465</v>
+        <v>1864564.881355709</v>
       </c>
     </row>
   </sheetData>
@@ -10217,28 +10217,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4002.319586588868</v>
+        <v>4163.598079890038</v>
       </c>
       <c r="AB2" t="n">
-        <v>5476.150228249686</v>
+        <v>5696.818577889326</v>
       </c>
       <c r="AC2" t="n">
-        <v>4953.514136290447</v>
+        <v>5153.122208350444</v>
       </c>
       <c r="AD2" t="n">
-        <v>4002319.586588868</v>
+        <v>4163598.079890038</v>
       </c>
       <c r="AE2" t="n">
-        <v>5476150.228249686</v>
+        <v>5696818.577889326</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.691468068686929e-07</v>
+        <v>1.158822422821229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.32378472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>4953514.136290447</v>
+        <v>5153122.208350443</v>
       </c>
     </row>
     <row r="3">
@@ -10323,28 +10323,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2187.549142306299</v>
+        <v>2298.545388588763</v>
       </c>
       <c r="AB3" t="n">
-        <v>2993.101244360454</v>
+        <v>3144.971205333088</v>
       </c>
       <c r="AC3" t="n">
-        <v>2707.443862442672</v>
+        <v>2844.819567490789</v>
       </c>
       <c r="AD3" t="n">
-        <v>2187549.142306299</v>
+        <v>2298545.388588763</v>
       </c>
       <c r="AE3" t="n">
-        <v>2993101.244360453</v>
+        <v>3144971.205333088</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.6788685791443e-07</v>
+        <v>1.676177756797278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.65798611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>2707443.862442672</v>
+        <v>2844819.567490789</v>
       </c>
     </row>
     <row r="4">
@@ -10429,28 +10429,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1838.098815840944</v>
+        <v>1938.833902078953</v>
       </c>
       <c r="AB4" t="n">
-        <v>2514.967891030205</v>
+        <v>2652.798080139403</v>
       </c>
       <c r="AC4" t="n">
-        <v>2274.942885289885</v>
+        <v>2399.618754596387</v>
       </c>
       <c r="AD4" t="n">
-        <v>1838098.815840944</v>
+        <v>1938833.902078953</v>
       </c>
       <c r="AE4" t="n">
-        <v>2514967.891030204</v>
+        <v>2652798.080139403</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.079733278577528e-06</v>
+        <v>1.869872382320803e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.4140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2274942.885289885</v>
+        <v>2399618.754596387</v>
       </c>
     </row>
     <row r="5">
@@ -10535,28 +10535,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1683.408529215621</v>
+        <v>1774.138388464342</v>
       </c>
       <c r="AB5" t="n">
-        <v>2303.313816415638</v>
+        <v>2427.454412558631</v>
       </c>
       <c r="AC5" t="n">
-        <v>2083.488778498174</v>
+        <v>2195.7815703777</v>
       </c>
       <c r="AD5" t="n">
-        <v>1683408.529215622</v>
+        <v>1774138.388464342</v>
       </c>
       <c r="AE5" t="n">
-        <v>2303313.816415639</v>
+        <v>2427454.412558631</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.139133579706894e-06</v>
+        <v>1.972741289658427e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.40060763888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>2083488.778498174</v>
+        <v>2195781.5703777</v>
       </c>
     </row>
     <row r="6">
@@ -10641,28 +10641,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1589.655256428552</v>
+        <v>1690.39025315801</v>
       </c>
       <c r="AB6" t="n">
-        <v>2175.036452485886</v>
+        <v>2312.866519125536</v>
       </c>
       <c r="AC6" t="n">
-        <v>1967.454026143466</v>
+        <v>2092.129784668742</v>
       </c>
       <c r="AD6" t="n">
-        <v>1589655.256428552</v>
+        <v>1690390.25315801</v>
       </c>
       <c r="AE6" t="n">
-        <v>2175036.452485886</v>
+        <v>2312866.519125536</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.176125962361443e-06</v>
+        <v>2.036804365284946e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.82118055555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1967454.026143466</v>
+        <v>2092129.784668742</v>
       </c>
     </row>
     <row r="7">
@@ -10747,28 +10747,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1536.125193950533</v>
+        <v>1626.769712344682</v>
       </c>
       <c r="AB7" t="n">
-        <v>2101.794259423776</v>
+        <v>2225.818088444571</v>
       </c>
       <c r="AC7" t="n">
-        <v>1901.201965191141</v>
+        <v>2013.389134038727</v>
       </c>
       <c r="AD7" t="n">
-        <v>1536125.193950533</v>
+        <v>1626769.712344682</v>
       </c>
       <c r="AE7" t="n">
-        <v>2101794.259423776</v>
+        <v>2225818.088444571</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.200272426235168e-06</v>
+        <v>2.07862099428398e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.46310763888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1901201.965191141</v>
+        <v>2013389.134038727</v>
       </c>
     </row>
     <row r="8">
@@ -10853,28 +10853,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1494.477655615397</v>
+        <v>1585.122174009546</v>
       </c>
       <c r="AB8" t="n">
-        <v>2044.810260113926</v>
+        <v>2168.834089134721</v>
       </c>
       <c r="AC8" t="n">
-        <v>1849.656438797877</v>
+        <v>1961.843607645464</v>
       </c>
       <c r="AD8" t="n">
-        <v>1494477.655615397</v>
+        <v>1585122.174009546</v>
       </c>
       <c r="AE8" t="n">
-        <v>2044810.260113926</v>
+        <v>2168834.089134721</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.21843056706821e-06</v>
+        <v>2.110067099291254e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.20269097222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1849656.438797877</v>
+        <v>1961843.607645464</v>
       </c>
     </row>
     <row r="9">
@@ -10959,28 +10959,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1463.426412462847</v>
+        <v>1544.151044722279</v>
       </c>
       <c r="AB9" t="n">
-        <v>2002.324579348441</v>
+        <v>2112.775582525226</v>
       </c>
       <c r="AC9" t="n">
-        <v>1811.225531775622</v>
+        <v>1911.135246228172</v>
       </c>
       <c r="AD9" t="n">
-        <v>1463426.412462847</v>
+        <v>1544151.044722279</v>
       </c>
       <c r="AE9" t="n">
-        <v>2002324.579348441</v>
+        <v>2112775.582525226</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.231083314138043e-06</v>
+        <v>2.131979012886748e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.02473958333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1811225.531775622</v>
+        <v>1911135.246228172</v>
       </c>
     </row>
     <row r="10">
@@ -11065,28 +11065,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1426.205415382048</v>
+        <v>1516.935185122218</v>
       </c>
       <c r="AB10" t="n">
-        <v>1951.397169067993</v>
+        <v>2075.537642741436</v>
       </c>
       <c r="AC10" t="n">
-        <v>1765.158562055271</v>
+        <v>1877.45124315357</v>
       </c>
       <c r="AD10" t="n">
-        <v>1426205.415382048</v>
+        <v>1516935.185122218</v>
       </c>
       <c r="AE10" t="n">
-        <v>1951397.169067993</v>
+        <v>2075537.642741436</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.242094101664462e-06</v>
+        <v>2.151047395710307e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1765158.562055271</v>
+        <v>1877451.24315357</v>
       </c>
     </row>
     <row r="11">
@@ -11171,28 +11171,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1399.868468341208</v>
+        <v>1490.598238081378</v>
       </c>
       <c r="AB11" t="n">
-        <v>1915.361796222615</v>
+        <v>2039.502269896058</v>
       </c>
       <c r="AC11" t="n">
-        <v>1732.562354618292</v>
+        <v>1844.855035716591</v>
       </c>
       <c r="AD11" t="n">
-        <v>1399868.468341208</v>
+        <v>1490598.238081377</v>
       </c>
       <c r="AE11" t="n">
-        <v>1915361.796222615</v>
+        <v>2039502.269896058</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.251849273069447e-06</v>
+        <v>2.167941313825917e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.74262152777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1732562.354618292</v>
+        <v>1844855.035716591</v>
       </c>
     </row>
     <row r="12">
@@ -11277,28 +11277,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1381.199038880639</v>
+        <v>1471.928808620809</v>
       </c>
       <c r="AB12" t="n">
-        <v>1889.817459197566</v>
+        <v>2013.95793287101</v>
       </c>
       <c r="AC12" t="n">
-        <v>1709.455933267212</v>
+        <v>1821.748614365512</v>
       </c>
       <c r="AD12" t="n">
-        <v>1381199.038880639</v>
+        <v>1471928.808620809</v>
       </c>
       <c r="AE12" t="n">
-        <v>1889817.459197566</v>
+        <v>2013957.93287101</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.258320525387605e-06</v>
+        <v>2.179148170397658e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.65798611111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>1709455.933267212</v>
+        <v>1821748.614365512</v>
       </c>
     </row>
     <row r="13">
@@ -11383,28 +11383,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1362.499589626608</v>
+        <v>1453.229359366777</v>
       </c>
       <c r="AB13" t="n">
-        <v>1864.232047766722</v>
+        <v>1988.372521440166</v>
       </c>
       <c r="AC13" t="n">
-        <v>1686.312357593978</v>
+        <v>1798.605038692277</v>
       </c>
       <c r="AD13" t="n">
-        <v>1362499.589626608</v>
+        <v>1453229.359366777</v>
       </c>
       <c r="AE13" t="n">
-        <v>1864232.047766722</v>
+        <v>1988372.521440166</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.26392250500631e-06</v>
+        <v>2.188849628325434e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.58420138888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1686312.357593978</v>
+        <v>1798605.038692277</v>
       </c>
     </row>
     <row r="14">
@@ -11489,28 +11489,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1342.848881093375</v>
+        <v>1433.578650833544</v>
       </c>
       <c r="AB14" t="n">
-        <v>1837.345081423477</v>
+        <v>1961.48555509692</v>
       </c>
       <c r="AC14" t="n">
-        <v>1661.991445582437</v>
+        <v>1774.284126680736</v>
       </c>
       <c r="AD14" t="n">
-        <v>1342848.881093374</v>
+        <v>1433578.650833544</v>
       </c>
       <c r="AE14" t="n">
-        <v>1837345.081423477</v>
+        <v>1961485.55509692</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.269427898769519e-06</v>
+        <v>2.198383819737214e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.51041666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1661991.445582437</v>
+        <v>1774284.126680736</v>
       </c>
     </row>
     <row r="15">
@@ -11595,28 +11595,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1326.833331075821</v>
+        <v>1407.472622480682</v>
       </c>
       <c r="AB15" t="n">
-        <v>1815.43189933326</v>
+        <v>1925.766135387847</v>
       </c>
       <c r="AC15" t="n">
-        <v>1642.169626835566</v>
+        <v>1741.973718256177</v>
       </c>
       <c r="AD15" t="n">
-        <v>1326833.331075822</v>
+        <v>1407472.622480682</v>
       </c>
       <c r="AE15" t="n">
-        <v>1815431.89933326</v>
+        <v>1925766.135387847</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.273001575422831e-06</v>
+        <v>2.204572680829071e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.46484375</v>
       </c>
       <c r="AH15" t="n">
-        <v>1642169.626835566</v>
+        <v>1741973.718256177</v>
       </c>
     </row>
     <row r="16">
@@ -11701,28 +11701,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1309.733121956911</v>
+        <v>1390.372413361772</v>
       </c>
       <c r="AB16" t="n">
-        <v>1792.034638808784</v>
+        <v>1902.368874863372</v>
       </c>
       <c r="AC16" t="n">
-        <v>1621.005368017285</v>
+        <v>1720.809459437896</v>
       </c>
       <c r="AD16" t="n">
-        <v>1309733.121956911</v>
+        <v>1390372.413361772</v>
       </c>
       <c r="AE16" t="n">
-        <v>1792034.638808784</v>
+        <v>1902368.874863372</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.277927454053071e-06</v>
+        <v>2.213103273144873e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.40190972222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>1621005.368017286</v>
+        <v>1720809.459437896</v>
       </c>
     </row>
     <row r="17">
@@ -11807,28 +11807,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1295.054966525378</v>
+        <v>1375.694257930239</v>
       </c>
       <c r="AB17" t="n">
-        <v>1771.951338992845</v>
+        <v>1882.285575047433</v>
       </c>
       <c r="AC17" t="n">
-        <v>1602.838790148691</v>
+        <v>1702.642881569302</v>
       </c>
       <c r="AD17" t="n">
-        <v>1295054.966525378</v>
+        <v>1375694.257930239</v>
       </c>
       <c r="AE17" t="n">
-        <v>1771951.338992845</v>
+        <v>1882285.575047433</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.280535272151433e-06</v>
+        <v>2.21761946907677e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.36935763888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>1602838.790148692</v>
+        <v>1702642.881569302</v>
       </c>
     </row>
     <row r="18">
@@ -11913,28 +11913,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1280.026158417132</v>
+        <v>1360.665449821992</v>
       </c>
       <c r="AB18" t="n">
-        <v>1751.388260714923</v>
+        <v>1861.72249676951</v>
       </c>
       <c r="AC18" t="n">
-        <v>1584.238223201152</v>
+        <v>1684.042314621762</v>
       </c>
       <c r="AD18" t="n">
-        <v>1280026.158417132</v>
+        <v>1360665.449821992</v>
       </c>
       <c r="AE18" t="n">
-        <v>1751388.260714923</v>
+        <v>1861722.49676951</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.28362601952727e-06</v>
+        <v>2.222971997588646e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.33029513888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>1584238.223201152</v>
+        <v>1684042.314621762</v>
       </c>
     </row>
     <row r="19">
@@ -12019,28 +12019,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1265.994526192648</v>
+        <v>1346.633817597508</v>
       </c>
       <c r="AB19" t="n">
-        <v>1732.189562473458</v>
+        <v>1842.523798528046</v>
       </c>
       <c r="AC19" t="n">
-        <v>1566.871821774311</v>
+        <v>1666.675913194921</v>
       </c>
       <c r="AD19" t="n">
-        <v>1265994.526192648</v>
+        <v>1346633.817597508</v>
       </c>
       <c r="AE19" t="n">
-        <v>1732189.562473458</v>
+        <v>1842523.798528046</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.286137251770138e-06</v>
+        <v>2.227320927004545e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.29774305555556</v>
       </c>
       <c r="AH19" t="n">
-        <v>1566871.821774311</v>
+        <v>1666675.913194921</v>
       </c>
     </row>
     <row r="20">
@@ -12125,28 +12125,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1264.087653307432</v>
+        <v>1344.726944712293</v>
       </c>
       <c r="AB20" t="n">
-        <v>1729.580494866613</v>
+        <v>1839.9147309212</v>
       </c>
       <c r="AC20" t="n">
-        <v>1564.511759918013</v>
+        <v>1664.315851338624</v>
       </c>
       <c r="AD20" t="n">
-        <v>1264087.653307432</v>
+        <v>1344726.944712293</v>
       </c>
       <c r="AE20" t="n">
-        <v>1729580.494866613</v>
+        <v>1839914.7309212</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.286909938614097e-06</v>
+        <v>2.228659059132514e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.28689236111111</v>
       </c>
       <c r="AH20" t="n">
-        <v>1564511.759918013</v>
+        <v>1664315.851338624</v>
       </c>
     </row>
     <row r="21">
@@ -12231,28 +12231,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1269.617982618097</v>
+        <v>1350.257274022958</v>
       </c>
       <c r="AB21" t="n">
-        <v>1737.147335410374</v>
+        <v>1847.481571464961</v>
       </c>
       <c r="AC21" t="n">
-        <v>1571.356431820405</v>
+        <v>1671.160523241016</v>
       </c>
       <c r="AD21" t="n">
-        <v>1269617.982618097</v>
+        <v>1350257.274022958</v>
       </c>
       <c r="AE21" t="n">
-        <v>1737147.335410374</v>
+        <v>1847481.571464961</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.286813352758602e-06</v>
+        <v>2.228491792616518e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.2890625</v>
       </c>
       <c r="AH21" t="n">
-        <v>1571356.431820405</v>
+        <v>1671160.523241016</v>
       </c>
     </row>
   </sheetData>
@@ -12528,28 +12528,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1590.28229626609</v>
+        <v>1699.496001909532</v>
       </c>
       <c r="AB2" t="n">
-        <v>2175.894396054652</v>
+        <v>2325.325406284652</v>
       </c>
       <c r="AC2" t="n">
-        <v>1968.23008878216</v>
+        <v>2103.399613123549</v>
       </c>
       <c r="AD2" t="n">
-        <v>1590282.29626609</v>
+        <v>1699496.001909532</v>
       </c>
       <c r="AE2" t="n">
-        <v>2175894.396054652</v>
+        <v>2325325.406284652</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.065471008460844e-06</v>
+        <v>2.016100426415413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.95095486111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1968230.08878216</v>
+        <v>2103399.613123549</v>
       </c>
     </row>
     <row r="3">
@@ -12634,28 +12634,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1164.382662420628</v>
+        <v>1246.335701589045</v>
       </c>
       <c r="AB3" t="n">
-        <v>1593.159727661531</v>
+        <v>1705.291491364678</v>
       </c>
       <c r="AC3" t="n">
-        <v>1441.110799267235</v>
+        <v>1542.540864820473</v>
       </c>
       <c r="AD3" t="n">
-        <v>1164382.662420628</v>
+        <v>1246335.701589045</v>
       </c>
       <c r="AE3" t="n">
-        <v>1593159.727661531</v>
+        <v>1705291.491364678</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.275957037140192e-06</v>
+        <v>2.414385287106217e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.33116319444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1441110.799267235</v>
+        <v>1542540.864820473</v>
       </c>
     </row>
     <row r="4">
@@ -12740,28 +12740,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1039.580803868396</v>
+        <v>1121.448502182242</v>
       </c>
       <c r="AB4" t="n">
-        <v>1422.400318920954</v>
+        <v>1534.415315501903</v>
       </c>
       <c r="AC4" t="n">
-        <v>1286.648428834523</v>
+        <v>1387.972871355822</v>
       </c>
       <c r="AD4" t="n">
-        <v>1039580.803868396</v>
+        <v>1121448.502182242</v>
       </c>
       <c r="AE4" t="n">
-        <v>1422400.318920954</v>
+        <v>1534415.315501903</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.350322300728901e-06</v>
+        <v>2.555100368456271e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.32204861111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1286648.428834524</v>
+        <v>1387972.871355822</v>
       </c>
     </row>
     <row r="5">
@@ -12846,28 +12846,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>967.8515293304669</v>
+        <v>1049.804478990334</v>
       </c>
       <c r="AB5" t="n">
-        <v>1324.257161025904</v>
+        <v>1436.388802259502</v>
       </c>
       <c r="AC5" t="n">
-        <v>1197.871916184189</v>
+        <v>1299.3018709562</v>
       </c>
       <c r="AD5" t="n">
-        <v>967851.5293304669</v>
+        <v>1049804.478990334</v>
       </c>
       <c r="AE5" t="n">
-        <v>1324257.161025904</v>
+        <v>1436388.802259502</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.38707382954593e-06</v>
+        <v>2.624642169529269e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.86197916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1197871.916184189</v>
+        <v>1299301.8709562</v>
       </c>
     </row>
     <row r="6">
@@ -12952,28 +12952,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>919.6084630238323</v>
+        <v>1001.561412683699</v>
       </c>
       <c r="AB6" t="n">
-        <v>1258.248869371291</v>
+        <v>1370.38051060489</v>
       </c>
       <c r="AC6" t="n">
-        <v>1138.163363241874</v>
+        <v>1239.593318013885</v>
       </c>
       <c r="AD6" t="n">
-        <v>919608.4630238323</v>
+        <v>1001561.412683699</v>
       </c>
       <c r="AE6" t="n">
-        <v>1258248.869371291</v>
+        <v>1370380.51060489</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.410137838832863e-06</v>
+        <v>2.668284238237837e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.58637152777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1138163.363241874</v>
+        <v>1239593.318013885</v>
       </c>
     </row>
     <row r="7">
@@ -13058,28 +13058,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>912.4733655180999</v>
+        <v>994.4263151779664</v>
       </c>
       <c r="AB7" t="n">
-        <v>1248.486314185662</v>
+        <v>1360.617955419261</v>
       </c>
       <c r="AC7" t="n">
-        <v>1129.332532621329</v>
+        <v>1230.76248739334</v>
       </c>
       <c r="AD7" t="n">
-        <v>912473.3655180999</v>
+        <v>994426.3151779665</v>
       </c>
       <c r="AE7" t="n">
-        <v>1248486.314185662</v>
+        <v>1360617.955419261</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.414017765628796e-06</v>
+        <v>2.675625894656101e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.54079861111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1129332.532621329</v>
+        <v>1230762.48739334</v>
       </c>
     </row>
   </sheetData>
@@ -13355,28 +13355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2249.047097673469</v>
+        <v>2372.41795694554</v>
       </c>
       <c r="AB2" t="n">
-        <v>3077.245459992303</v>
+        <v>3246.046912386541</v>
       </c>
       <c r="AC2" t="n">
-        <v>2783.55747223165</v>
+        <v>2936.248750923702</v>
       </c>
       <c r="AD2" t="n">
-        <v>2249047.097673469</v>
+        <v>2372417.95694554</v>
       </c>
       <c r="AE2" t="n">
-        <v>3077245.459992303</v>
+        <v>3246046.912386541</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.056798945110777e-07</v>
+        <v>1.649952076967276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.70486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2783557.47223165</v>
+        <v>2936248.750923702</v>
       </c>
     </row>
     <row r="3">
@@ -13461,28 +13461,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1497.380974579365</v>
+        <v>1592.176690168498</v>
       </c>
       <c r="AB3" t="n">
-        <v>2048.78270920582</v>
+        <v>2178.486389366685</v>
       </c>
       <c r="AC3" t="n">
-        <v>1853.249762923808</v>
+        <v>1970.574705890379</v>
       </c>
       <c r="AD3" t="n">
-        <v>1497380.974579365</v>
+        <v>1592176.690168498</v>
       </c>
       <c r="AE3" t="n">
-        <v>2048782.70920582</v>
+        <v>2178486.389366685</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.154886213390094e-06</v>
+        <v>2.103951868637347e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1853249.762923808</v>
+        <v>1970574.705890379</v>
       </c>
     </row>
     <row r="4">
@@ -13567,28 +13567,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1320.166343412055</v>
+        <v>1405.550769076787</v>
       </c>
       <c r="AB4" t="n">
-        <v>1806.309832684957</v>
+        <v>1923.136570774449</v>
       </c>
       <c r="AC4" t="n">
-        <v>1633.918157425277</v>
+        <v>1739.595115598865</v>
       </c>
       <c r="AD4" t="n">
-        <v>1320166.343412055</v>
+        <v>1405550.769076786</v>
       </c>
       <c r="AE4" t="n">
-        <v>1806309.832684957</v>
+        <v>1923136.570774449</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.242526002817964e-06</v>
+        <v>2.263612531822933e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.0078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1633918.157425277</v>
+        <v>1739595.115598865</v>
       </c>
     </row>
     <row r="5">
@@ -13673,28 +13673,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1228.439175021782</v>
+        <v>1313.738259831942</v>
       </c>
       <c r="AB5" t="n">
-        <v>1680.804674176319</v>
+        <v>1797.514645143614</v>
       </c>
       <c r="AC5" t="n">
-        <v>1520.391035097107</v>
+        <v>1625.962370238756</v>
       </c>
       <c r="AD5" t="n">
-        <v>1228439.175021782</v>
+        <v>1313738.259831942</v>
       </c>
       <c r="AE5" t="n">
-        <v>1680804.67417632</v>
+        <v>1797514.645143614</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.288201798955078e-06</v>
+        <v>2.346823912753773e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.36979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1520391.035097107</v>
+        <v>1625962.370238756</v>
       </c>
     </row>
     <row r="6">
@@ -13779,28 +13779,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1175.114857692851</v>
+        <v>1251.087993433181</v>
       </c>
       <c r="AB6" t="n">
-        <v>1607.843990704026</v>
+        <v>1711.793786722145</v>
       </c>
       <c r="AC6" t="n">
-        <v>1454.393616854447</v>
+        <v>1548.422590235051</v>
       </c>
       <c r="AD6" t="n">
-        <v>1175114.857692851</v>
+        <v>1251087.993433181</v>
       </c>
       <c r="AE6" t="n">
-        <v>1607843.990704026</v>
+        <v>1711793.786722145</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.31562789776427e-06</v>
+        <v>2.396788308527145e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.00737847222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1454393.616854447</v>
+        <v>1548422.590235051</v>
       </c>
     </row>
     <row r="7">
@@ -13885,28 +13885,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1123.984159046905</v>
+        <v>1209.368495203086</v>
       </c>
       <c r="AB7" t="n">
-        <v>1537.884713089421</v>
+        <v>1654.711328709364</v>
       </c>
       <c r="AC7" t="n">
-        <v>1391.111154506916</v>
+        <v>1496.788001899278</v>
       </c>
       <c r="AD7" t="n">
-        <v>1123984.159046905</v>
+        <v>1209368.495203085</v>
       </c>
       <c r="AE7" t="n">
-        <v>1537884.713089421</v>
+        <v>1654711.328709364</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.335217968342265e-06</v>
+        <v>2.432477162650982e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.7578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1391111.154506916</v>
+        <v>1496788.001899278</v>
       </c>
     </row>
     <row r="8">
@@ -13991,28 +13991,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1090.745255787198</v>
+        <v>1176.129591943378</v>
       </c>
       <c r="AB8" t="n">
-        <v>1492.40577925257</v>
+        <v>1609.232394872514</v>
       </c>
       <c r="AC8" t="n">
-        <v>1349.972666285371</v>
+        <v>1455.649513677732</v>
       </c>
       <c r="AD8" t="n">
-        <v>1090745.255787198</v>
+        <v>1176129.591943378</v>
       </c>
       <c r="AE8" t="n">
-        <v>1492405.779252571</v>
+        <v>1609232.394872514</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.348518595208377e-06</v>
+        <v>2.456708016240324e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.59288194444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1349972.666285371</v>
+        <v>1455649.513677732</v>
       </c>
     </row>
     <row r="9">
@@ -14097,28 +14097,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1063.929282978129</v>
+        <v>1139.817077863888</v>
       </c>
       <c r="AB9" t="n">
-        <v>1455.714982217977</v>
+        <v>1559.548011113898</v>
       </c>
       <c r="AC9" t="n">
-        <v>1316.783587423902</v>
+        <v>1410.706937772568</v>
       </c>
       <c r="AD9" t="n">
-        <v>1063929.282978129</v>
+        <v>1139817.077863888</v>
       </c>
       <c r="AE9" t="n">
-        <v>1455714.982217977</v>
+        <v>1559548.011113898</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.357591891055027e-06</v>
+        <v>2.47323759078189e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.48220486111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1316783.587423902</v>
+        <v>1410706.937772568</v>
       </c>
     </row>
     <row r="10">
@@ -14203,28 +14203,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1039.8439360942</v>
+        <v>1115.731730979959</v>
       </c>
       <c r="AB10" t="n">
-        <v>1422.760348040873</v>
+        <v>1526.593376936794</v>
       </c>
       <c r="AC10" t="n">
-        <v>1286.974097280541</v>
+        <v>1380.897447629207</v>
       </c>
       <c r="AD10" t="n">
-        <v>1039843.9360942</v>
+        <v>1115731.730979959</v>
       </c>
       <c r="AE10" t="n">
-        <v>1422760.348040873</v>
+        <v>1526593.376936794</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.364499968574636e-06</v>
+        <v>2.485822607762401e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.39756944444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1286974.097280541</v>
+        <v>1380897.447629207</v>
       </c>
     </row>
     <row r="11">
@@ -14309,28 +14309,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1040.407771883945</v>
+        <v>1116.295566769704</v>
       </c>
       <c r="AB11" t="n">
-        <v>1423.531813043081</v>
+        <v>1527.364841939002</v>
       </c>
       <c r="AC11" t="n">
-        <v>1287.671934745697</v>
+        <v>1381.595285094362</v>
       </c>
       <c r="AD11" t="n">
-        <v>1040407.771883945</v>
+        <v>1116295.566769704</v>
       </c>
       <c r="AE11" t="n">
-        <v>1423531.813043081</v>
+        <v>1527364.841939002</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.365737236190088e-06</v>
+        <v>2.488076640654433e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.38237847222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1287671.934745697</v>
+        <v>1381595.285094362</v>
       </c>
     </row>
   </sheetData>
@@ -14606,28 +14606,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1198.103539027399</v>
+        <v>1286.044787352051</v>
       </c>
       <c r="AB2" t="n">
-        <v>1639.298118694997</v>
+        <v>1759.623214346848</v>
       </c>
       <c r="AC2" t="n">
-        <v>1482.845807016106</v>
+        <v>1591.687244416276</v>
       </c>
       <c r="AD2" t="n">
-        <v>1198103.539027399</v>
+        <v>1286044.787352051</v>
       </c>
       <c r="AE2" t="n">
-        <v>1639298.118694997</v>
+        <v>1759623.214346848</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.201053740736865e-06</v>
+        <v>2.353678351767293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.22569444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1482845.807016106</v>
+        <v>1591687.244416276</v>
       </c>
     </row>
     <row r="3">
@@ -14712,28 +14712,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>919.0941163069404</v>
+        <v>998.3179660105461</v>
       </c>
       <c r="AB3" t="n">
-        <v>1257.545117501864</v>
+        <v>1365.942683775913</v>
       </c>
       <c r="AC3" t="n">
-        <v>1137.526776463143</v>
+        <v>1235.579031148937</v>
       </c>
       <c r="AD3" t="n">
-        <v>919094.1163069403</v>
+        <v>998317.9660105461</v>
       </c>
       <c r="AE3" t="n">
-        <v>1257545.117501864</v>
+        <v>1365942.683775913</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.379812624609817e-06</v>
+        <v>2.703988167962295e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1137526.776463143</v>
+        <v>1235579.031148937</v>
       </c>
     </row>
     <row r="4">
@@ -14818,28 +14818,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>821.3219984358195</v>
+        <v>900.4605072848539</v>
       </c>
       <c r="AB4" t="n">
-        <v>1123.768992429181</v>
+        <v>1232.049791581033</v>
       </c>
       <c r="AC4" t="n">
-        <v>1016.518057011426</v>
+        <v>1114.464688665281</v>
       </c>
       <c r="AD4" t="n">
-        <v>821321.9984358195</v>
+        <v>900460.5072848538</v>
       </c>
       <c r="AE4" t="n">
-        <v>1123768.992429181</v>
+        <v>1232049.791581033</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.441040620526226e-06</v>
+        <v>2.823975312269538e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.85763888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1016518.057011426</v>
+        <v>1114464.688665281</v>
       </c>
     </row>
     <row r="5">
@@ -14924,28 +14924,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>812.5825515345074</v>
+        <v>891.7210603835417</v>
       </c>
       <c r="AB5" t="n">
-        <v>1111.811295621619</v>
+        <v>1220.092094773472</v>
       </c>
       <c r="AC5" t="n">
-        <v>1005.701586004445</v>
+        <v>1103.648217658301</v>
       </c>
       <c r="AD5" t="n">
-        <v>812582.5515345074</v>
+        <v>891721.0603835417</v>
       </c>
       <c r="AE5" t="n">
-        <v>1111811.295621619</v>
+        <v>1220092.094773472</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.448540210519643e-06</v>
+        <v>2.838672092285233e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1005701.586004445</v>
+        <v>1103648.217658301</v>
       </c>
     </row>
   </sheetData>
@@ -15221,28 +15221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4387.120652981934</v>
+        <v>4560.022322457637</v>
       </c>
       <c r="AB2" t="n">
-        <v>6002.652023513638</v>
+        <v>6239.223715573615</v>
       </c>
       <c r="AC2" t="n">
-        <v>5429.767339164297</v>
+        <v>5643.760960964515</v>
       </c>
       <c r="AD2" t="n">
-        <v>4387120.652981934</v>
+        <v>4560022.322457637</v>
       </c>
       <c r="AE2" t="n">
-        <v>6002652.023513637</v>
+        <v>6239223.715573614</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.357604948516871e-07</v>
+        <v>1.09381398372928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.67144097222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>5429767.339164296</v>
+        <v>5643760.960964515</v>
       </c>
     </row>
     <row r="3">
@@ -15327,28 +15327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2319.625175647358</v>
+        <v>2431.472695691514</v>
       </c>
       <c r="AB3" t="n">
-        <v>3173.813499961229</v>
+        <v>3326.848211249988</v>
       </c>
       <c r="AC3" t="n">
-        <v>2870.909194000034</v>
+        <v>3009.338487228953</v>
       </c>
       <c r="AD3" t="n">
-        <v>2319625.175647358</v>
+        <v>2431472.695691514</v>
       </c>
       <c r="AE3" t="n">
-        <v>3173813.49996123</v>
+        <v>3326848.211249988</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.410059356951123e-07</v>
+        <v>1.618983028311134e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.07465277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2870909.194000034</v>
+        <v>3009338.487228953</v>
       </c>
     </row>
     <row r="4">
@@ -15433,28 +15433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1924.744193044406</v>
+        <v>2026.501257944567</v>
       </c>
       <c r="AB4" t="n">
-        <v>2633.519918644243</v>
+        <v>2772.748424045515</v>
       </c>
       <c r="AC4" t="n">
-        <v>2382.180473777256</v>
+        <v>2508.121206031465</v>
       </c>
       <c r="AD4" t="n">
-        <v>1924744.193044406</v>
+        <v>2026501.257944567</v>
       </c>
       <c r="AE4" t="n">
-        <v>2633519.918644243</v>
+        <v>2772748.424045515</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.056346404875522e-06</v>
+        <v>1.817424137975961e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.66362847222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2382180.473777256</v>
+        <v>2508121.206031465</v>
       </c>
     </row>
     <row r="5">
@@ -15539,28 +15539,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1757.519087609491</v>
+        <v>1859.19081165508</v>
       </c>
       <c r="AB5" t="n">
-        <v>2404.715151937215</v>
+        <v>2543.826890216288</v>
       </c>
       <c r="AC5" t="n">
-        <v>2175.21251287524</v>
+        <v>2301.047622097509</v>
       </c>
       <c r="AD5" t="n">
-        <v>1757519.087609491</v>
+        <v>1859190.81165508</v>
       </c>
       <c r="AE5" t="n">
-        <v>2404715.151937215</v>
+        <v>2543826.890216288</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.117797509617284e-06</v>
+        <v>1.92314960885133e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.58289930555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>2175212.51287524</v>
+        <v>2301047.622097509</v>
       </c>
     </row>
     <row r="6">
@@ -15645,28 +15645,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1657.698054794488</v>
+        <v>1759.284437985506</v>
       </c>
       <c r="AB6" t="n">
-        <v>2268.135611046566</v>
+        <v>2407.130582203441</v>
       </c>
       <c r="AC6" t="n">
-        <v>2051.667931676604</v>
+        <v>2177.397417866935</v>
       </c>
       <c r="AD6" t="n">
-        <v>1657698.054794488</v>
+        <v>1759284.437985506</v>
       </c>
       <c r="AE6" t="n">
-        <v>2268135.611046566</v>
+        <v>2407130.582203441</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.155701929364539e-06</v>
+        <v>1.988363450699689e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.97309027777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>2051667.931676604</v>
+        <v>2177397.417866935</v>
       </c>
     </row>
     <row r="7">
@@ -15751,28 +15751,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1600.569080851307</v>
+        <v>1692.150439261452</v>
       </c>
       <c r="AB7" t="n">
-        <v>2189.969228545051</v>
+        <v>2315.274883406196</v>
       </c>
       <c r="AC7" t="n">
-        <v>1980.961639013828</v>
+        <v>2094.308298042616</v>
       </c>
       <c r="AD7" t="n">
-        <v>1600569.080851307</v>
+        <v>1692150.439261452</v>
       </c>
       <c r="AE7" t="n">
-        <v>2189969.228545052</v>
+        <v>2315274.883406196</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.180588669602636e-06</v>
+        <v>2.031180619590025e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.59548611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1980961.639013828</v>
+        <v>2094308.298042616</v>
       </c>
     </row>
     <row r="8">
@@ -15857,28 +15857,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1555.508196520596</v>
+        <v>1646.918962730148</v>
       </c>
       <c r="AB8" t="n">
-        <v>2128.314938657858</v>
+        <v>2253.387181744155</v>
       </c>
       <c r="AC8" t="n">
-        <v>1925.191548021128</v>
+        <v>2038.327071767265</v>
       </c>
       <c r="AD8" t="n">
-        <v>1555508.196520596</v>
+        <v>1646918.962730148</v>
       </c>
       <c r="AE8" t="n">
-        <v>2128314.938657857</v>
+        <v>2253387.181744155</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.200210907098058e-06</v>
+        <v>2.064940310445867e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.30685763888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1925191.548021128</v>
+        <v>2038327.071767265</v>
       </c>
     </row>
     <row r="9">
@@ -15963,28 +15963,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1521.156971073259</v>
+        <v>1602.562712501939</v>
       </c>
       <c r="AB9" t="n">
-        <v>2081.314076531702</v>
+        <v>2192.697003322267</v>
       </c>
       <c r="AC9" t="n">
-        <v>1882.676382210168</v>
+        <v>1983.429078794762</v>
       </c>
       <c r="AD9" t="n">
-        <v>1521156.971073259</v>
+        <v>1602562.712501939</v>
       </c>
       <c r="AE9" t="n">
-        <v>2081314.076531702</v>
+        <v>2192697.003322267</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.214281487155752e-06</v>
+        <v>2.089148479010787e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.10720486111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1882676.382210169</v>
+        <v>1983429.078794762</v>
       </c>
     </row>
     <row r="10">
@@ -16069,28 +16069,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1482.565044649975</v>
+        <v>1574.061062205549</v>
       </c>
       <c r="AB10" t="n">
-        <v>2028.510900243732</v>
+        <v>2153.699787982678</v>
       </c>
       <c r="AC10" t="n">
-        <v>1834.912666957399</v>
+        <v>1948.153702954248</v>
       </c>
       <c r="AD10" t="n">
-        <v>1482565.044649975</v>
+        <v>1574061.062205549</v>
       </c>
       <c r="AE10" t="n">
-        <v>2028510.900243732</v>
+        <v>2153699.787982678</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.22557623849458e-06</v>
+        <v>2.108580886430248e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.94878472222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1834912.666957399</v>
+        <v>1948153.702954248</v>
       </c>
     </row>
     <row r="11">
@@ -16175,28 +16175,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1460.008255996193</v>
+        <v>1551.504273551767</v>
       </c>
       <c r="AB11" t="n">
-        <v>1997.647706872345</v>
+        <v>2122.836594611292</v>
       </c>
       <c r="AC11" t="n">
-        <v>1806.995013444614</v>
+        <v>1920.236049441462</v>
       </c>
       <c r="AD11" t="n">
-        <v>1460008.255996193</v>
+        <v>1551504.273551767</v>
       </c>
       <c r="AE11" t="n">
-        <v>1997647.706872345</v>
+        <v>2122836.594611292</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.234286597577914e-06</v>
+        <v>2.123566895541865e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.82942708333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1806995.013444613</v>
+        <v>1920236.049441462</v>
       </c>
     </row>
     <row r="12">
@@ -16281,28 +16281,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1439.361361786166</v>
+        <v>1530.857379341739</v>
       </c>
       <c r="AB12" t="n">
-        <v>1969.397715337499</v>
+        <v>2094.586603076445</v>
       </c>
       <c r="AC12" t="n">
-        <v>1781.441161452741</v>
+        <v>1894.68219744959</v>
       </c>
       <c r="AD12" t="n">
-        <v>1439361.361786166</v>
+        <v>1530857.379341739</v>
       </c>
       <c r="AE12" t="n">
-        <v>1969397.715337499</v>
+        <v>2094586.603076446</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.241082592027548e-06</v>
+        <v>2.135259276277303e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.73611111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>1781441.161452741</v>
+        <v>1894682.19744959</v>
       </c>
     </row>
     <row r="13">
@@ -16387,28 +16387,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1418.404163295447</v>
+        <v>1509.90018085102</v>
       </c>
       <c r="AB13" t="n">
-        <v>1940.723151796153</v>
+        <v>2065.9120395351</v>
       </c>
       <c r="AC13" t="n">
-        <v>1755.503258010779</v>
+        <v>1868.744294007627</v>
       </c>
       <c r="AD13" t="n">
-        <v>1418404.163295447</v>
+        <v>1509900.18085102</v>
       </c>
       <c r="AE13" t="n">
-        <v>1940723.151796153</v>
+        <v>2065912.0395351</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.248548614098977e-06</v>
+        <v>2.148104426944404e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.63845486111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>1755503.258010779</v>
+        <v>1868744.294007627</v>
       </c>
     </row>
     <row r="14">
@@ -16493,28 +16493,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1401.547071054694</v>
+        <v>1493.043088610267</v>
       </c>
       <c r="AB14" t="n">
-        <v>1917.658534509931</v>
+        <v>2042.847422248878</v>
       </c>
       <c r="AC14" t="n">
-        <v>1734.63989542696</v>
+        <v>1847.880931423809</v>
       </c>
       <c r="AD14" t="n">
-        <v>1401547.071054694</v>
+        <v>1493043.088610267</v>
       </c>
       <c r="AE14" t="n">
-        <v>1917658.534509931</v>
+        <v>2042847.422248878</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.252855934524802e-06</v>
+        <v>2.155515090790808e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.57986111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>1734639.89542696</v>
+        <v>1847880.931423809</v>
       </c>
     </row>
     <row r="15">
@@ -16599,28 +16599,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1387.349363752407</v>
+        <v>1478.84538130798</v>
       </c>
       <c r="AB15" t="n">
-        <v>1898.232605020303</v>
+        <v>2023.421492759249</v>
       </c>
       <c r="AC15" t="n">
-        <v>1717.067949383358</v>
+        <v>1830.308985380207</v>
       </c>
       <c r="AD15" t="n">
-        <v>1387349.363752407</v>
+        <v>1478845.381307981</v>
       </c>
       <c r="AE15" t="n">
-        <v>1898232.605020303</v>
+        <v>2023421.492759249</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.257067536718941e-06</v>
+        <v>2.162761073218404e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.5234375</v>
       </c>
       <c r="AH15" t="n">
-        <v>1717067.949383358</v>
+        <v>1830308.985380207</v>
       </c>
     </row>
     <row r="16">
@@ -16705,28 +16705,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1370.822334741083</v>
+        <v>1452.14273531519</v>
       </c>
       <c r="AB16" t="n">
-        <v>1875.619594805946</v>
+        <v>1986.885754474314</v>
       </c>
       <c r="AC16" t="n">
-        <v>1696.613093126301</v>
+        <v>1797.260166678956</v>
       </c>
       <c r="AD16" t="n">
-        <v>1370822.334741083</v>
+        <v>1452142.73531519</v>
       </c>
       <c r="AE16" t="n">
-        <v>1875619.594805946</v>
+        <v>1986885.754474314</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.26108770244971e-06</v>
+        <v>2.169677692808381e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.47135416666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1696613.093126301</v>
+        <v>1797260.166678956</v>
       </c>
     </row>
     <row r="17">
@@ -16811,28 +16811,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1356.638792588498</v>
+        <v>1437.959193162606</v>
       </c>
       <c r="AB17" t="n">
-        <v>1856.213046699062</v>
+        <v>1967.47920636743</v>
       </c>
       <c r="AC17" t="n">
-        <v>1679.058678733477</v>
+        <v>1779.705752286131</v>
       </c>
       <c r="AD17" t="n">
-        <v>1356638.792588498</v>
+        <v>1437959.193162606</v>
       </c>
       <c r="AE17" t="n">
-        <v>1856213.046699062</v>
+        <v>1967479.20636743</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.264437840558685e-06</v>
+        <v>2.175441542466695e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.42795138888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>1679058.678733477</v>
+        <v>1779705.752286131</v>
       </c>
     </row>
     <row r="18">
@@ -16917,28 +16917,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1340.769571913747</v>
+        <v>1422.089972487855</v>
       </c>
       <c r="AB18" t="n">
-        <v>1834.500078871263</v>
+        <v>1945.766238539631</v>
       </c>
       <c r="AC18" t="n">
-        <v>1659.417966080821</v>
+        <v>1760.065039633475</v>
       </c>
       <c r="AD18" t="n">
-        <v>1340769.571913747</v>
+        <v>1422089.972487855</v>
       </c>
       <c r="AE18" t="n">
-        <v>1834500.078871263</v>
+        <v>1945766.238539631</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.26836228805777e-06</v>
+        <v>2.182193480637864e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.37803819444444</v>
       </c>
       <c r="AH18" t="n">
-        <v>1659417.966080821</v>
+        <v>1760065.039633475</v>
       </c>
     </row>
     <row r="19">
@@ -17023,28 +17023,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1327.582084751222</v>
+        <v>1408.90248532533</v>
       </c>
       <c r="AB19" t="n">
-        <v>1816.456377144624</v>
+        <v>1927.722536812991</v>
       </c>
       <c r="AC19" t="n">
-        <v>1643.096329922477</v>
+        <v>1743.743403475132</v>
       </c>
       <c r="AD19" t="n">
-        <v>1327582.084751222</v>
+        <v>1408902.48532533</v>
       </c>
       <c r="AE19" t="n">
-        <v>1816456.377144624</v>
+        <v>1927722.536812991</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.270563807386524e-06</v>
+        <v>2.18598115327047e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.34765625</v>
       </c>
       <c r="AH19" t="n">
-        <v>1643096.329922477</v>
+        <v>1743743.403475132</v>
       </c>
     </row>
     <row r="20">
@@ -17129,28 +17129,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1313.696534697494</v>
+        <v>1395.016935271602</v>
       </c>
       <c r="AB20" t="n">
-        <v>1797.45755497388</v>
+        <v>1908.723714642247</v>
       </c>
       <c r="AC20" t="n">
-        <v>1625.910728674695</v>
+        <v>1726.557802227349</v>
       </c>
       <c r="AD20" t="n">
-        <v>1313696.534697494</v>
+        <v>1395016.935271602</v>
       </c>
       <c r="AE20" t="n">
-        <v>1797457.55497388</v>
+        <v>1908723.714642247</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.272861044946964e-06</v>
+        <v>2.189933507321886e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.31944444444444</v>
       </c>
       <c r="AH20" t="n">
-        <v>1625910.728674695</v>
+        <v>1726557.802227349</v>
       </c>
     </row>
     <row r="21">
@@ -17235,28 +17235,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1302.647413169209</v>
+        <v>1383.967813743317</v>
       </c>
       <c r="AB21" t="n">
-        <v>1782.339659446041</v>
+        <v>1893.605819114409</v>
       </c>
       <c r="AC21" t="n">
-        <v>1612.235663877933</v>
+        <v>1712.882737430588</v>
       </c>
       <c r="AD21" t="n">
-        <v>1302647.413169209</v>
+        <v>1383967.813743317</v>
       </c>
       <c r="AE21" t="n">
-        <v>1782339.659446041</v>
+        <v>1893605.819114409</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.274871127812349e-06</v>
+        <v>2.193391817116875e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.29340277777778</v>
       </c>
       <c r="AH21" t="n">
-        <v>1612235.663877933</v>
+        <v>1712882.737430588</v>
       </c>
     </row>
     <row r="22">
@@ -17341,28 +17341,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1300.568729932387</v>
+        <v>1381.889130506495</v>
       </c>
       <c r="AB22" t="n">
-        <v>1779.495513336388</v>
+        <v>1890.761673004756</v>
       </c>
       <c r="AC22" t="n">
-        <v>1609.662959081202</v>
+        <v>1710.310032633857</v>
       </c>
       <c r="AD22" t="n">
-        <v>1300568.729932387</v>
+        <v>1381889.130506495</v>
       </c>
       <c r="AE22" t="n">
-        <v>1779495.513336388</v>
+        <v>1890761.673004756</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.276115464824254e-06</v>
+        <v>2.195532675561392e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.27821180555556</v>
       </c>
       <c r="AH22" t="n">
-        <v>1609662.959081202</v>
+        <v>1710310.032633856</v>
       </c>
     </row>
     <row r="23">
@@ -17447,28 +17447,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1305.959933376987</v>
+        <v>1387.280333951096</v>
       </c>
       <c r="AB23" t="n">
-        <v>1786.8719957324</v>
+        <v>1898.138155400768</v>
       </c>
       <c r="AC23" t="n">
-        <v>1616.335440350296</v>
+        <v>1716.982513902951</v>
       </c>
       <c r="AD23" t="n">
-        <v>1305959.933376987</v>
+        <v>1387280.333951096</v>
       </c>
       <c r="AE23" t="n">
-        <v>1786871.9957324</v>
+        <v>1898138.155400768</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.276019746592569e-06</v>
+        <v>2.195367994142583e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.27821180555556</v>
       </c>
       <c r="AH23" t="n">
-        <v>1616335.440350296</v>
+        <v>1716982.513902951</v>
       </c>
     </row>
   </sheetData>
@@ -17744,28 +17744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>994.5967107291208</v>
+        <v>1080.600873357741</v>
       </c>
       <c r="AB2" t="n">
-        <v>1360.851098129671</v>
+        <v>1478.525787674021</v>
       </c>
       <c r="AC2" t="n">
-        <v>1230.973379290687</v>
+        <v>1337.417361622388</v>
       </c>
       <c r="AD2" t="n">
-        <v>994596.7107291208</v>
+        <v>1080600.873357741</v>
       </c>
       <c r="AE2" t="n">
-        <v>1360851.098129671</v>
+        <v>1478525.787674021</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.286526800545042e-06</v>
+        <v>2.579049300494505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.32291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1230973.379290687</v>
+        <v>1337417.361622388</v>
       </c>
     </row>
     <row r="3">
@@ -17850,28 +17850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>782.3461214797238</v>
+        <v>859.7328086254233</v>
       </c>
       <c r="AB3" t="n">
-        <v>1070.440478083515</v>
+        <v>1176.324357495945</v>
       </c>
       <c r="AC3" t="n">
-        <v>968.2791412278705</v>
+        <v>1064.057611798137</v>
       </c>
       <c r="AD3" t="n">
-        <v>782346.1214797238</v>
+        <v>859732.8086254233</v>
       </c>
       <c r="AE3" t="n">
-        <v>1070440.478083515</v>
+        <v>1176324.357495945</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.44563869850222e-06</v>
+        <v>2.898014617775857e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.19618055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>968279.1412278705</v>
+        <v>1064057.611798137</v>
       </c>
     </row>
     <row r="4">
@@ -17956,28 +17956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>751.8063486696088</v>
+        <v>829.2782871613289</v>
       </c>
       <c r="AB4" t="n">
-        <v>1028.654613605028</v>
+        <v>1134.655137670108</v>
       </c>
       <c r="AC4" t="n">
-        <v>930.4812610083814</v>
+        <v>1026.36524382936</v>
       </c>
       <c r="AD4" t="n">
-        <v>751806.3486696088</v>
+        <v>829278.2871613288</v>
       </c>
       <c r="AE4" t="n">
-        <v>1028654.613605028</v>
+        <v>1134655.137670108</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.464997885510688e-06</v>
+        <v>2.936823212895042e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.96831597222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>930481.2610083814</v>
+        <v>1026365.24382936</v>
       </c>
     </row>
   </sheetData>
@@ -18253,28 +18253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3029.129208780731</v>
+        <v>3176.172303236312</v>
       </c>
       <c r="AB2" t="n">
-        <v>4144.588219203187</v>
+        <v>4345.779068120817</v>
       </c>
       <c r="AC2" t="n">
-        <v>3749.034536528378</v>
+        <v>3931.024013198431</v>
       </c>
       <c r="AD2" t="n">
-        <v>3029129.208780732</v>
+        <v>3176172.303236312</v>
       </c>
       <c r="AE2" t="n">
-        <v>4144588.219203187</v>
+        <v>4345779.068120817</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.772988583716026e-07</v>
+        <v>1.376654036844548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.78428819444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>3749034.536528378</v>
+        <v>3931024.013198432</v>
       </c>
     </row>
     <row r="3">
@@ -18359,28 +18359,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1834.08859484668</v>
+        <v>1941.78943097898</v>
       </c>
       <c r="AB3" t="n">
-        <v>2509.480929747388</v>
+        <v>2656.841965169153</v>
       </c>
       <c r="AC3" t="n">
-        <v>2269.979591890903</v>
+        <v>2403.276696914527</v>
       </c>
       <c r="AD3" t="n">
-        <v>1834088.59484668</v>
+        <v>1941789.43097898</v>
       </c>
       <c r="AE3" t="n">
-        <v>2509480.929747388</v>
+        <v>2656841.965169153</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.054244540467131e-06</v>
+        <v>1.867145418810797e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.48394097222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2269979.591890903</v>
+        <v>2403276.696914527</v>
       </c>
     </row>
     <row r="4">
@@ -18465,28 +18465,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1573.034890091889</v>
+        <v>1671.092066680467</v>
       </c>
       <c r="AB4" t="n">
-        <v>2152.295734025251</v>
+        <v>2286.461889011062</v>
       </c>
       <c r="AC4" t="n">
-        <v>1946.883649935915</v>
+        <v>2068.245175393262</v>
       </c>
       <c r="AD4" t="n">
-        <v>1573034.890091889</v>
+        <v>1671092.066680467</v>
       </c>
       <c r="AE4" t="n">
-        <v>2152295.734025251</v>
+        <v>2286461.889011062</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.155648654752198e-06</v>
+        <v>2.046739640235019e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.68706597222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1946883.649935915</v>
+        <v>2068245.175393262</v>
       </c>
     </row>
     <row r="5">
@@ -18571,28 +18571,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1455.12109745769</v>
+        <v>1553.092933191696</v>
       </c>
       <c r="AB5" t="n">
-        <v>1990.960880953747</v>
+        <v>2125.01026881736</v>
       </c>
       <c r="AC5" t="n">
-        <v>1800.946368806667</v>
+        <v>1922.202271232075</v>
       </c>
       <c r="AD5" t="n">
-        <v>1455121.09745769</v>
+        <v>1553092.933191696</v>
       </c>
       <c r="AE5" t="n">
-        <v>1990960.880953747</v>
+        <v>2125010.26881736</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.207495115539755e-06</v>
+        <v>2.138563574839552e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.88411458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1800946.368806667</v>
+        <v>1922202.271232075</v>
       </c>
     </row>
     <row r="6">
@@ -18677,28 +18677,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1388.722553979662</v>
+        <v>1476.880227477904</v>
       </c>
       <c r="AB6" t="n">
-        <v>1900.111464470109</v>
+        <v>2020.73268259247</v>
       </c>
       <c r="AC6" t="n">
-        <v>1718.767493124271</v>
+        <v>1827.876791481977</v>
       </c>
       <c r="AD6" t="n">
-        <v>1388722.553979662</v>
+        <v>1476880.227477904</v>
       </c>
       <c r="AE6" t="n">
-        <v>1900111.464470109</v>
+        <v>2020732.68259247</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.240235011123452e-06</v>
+        <v>2.196548362718422e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.41319444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1718767.493124271</v>
+        <v>1827876.791481977</v>
       </c>
     </row>
     <row r="7">
@@ -18783,28 +18783,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1341.997968111933</v>
+        <v>1420.512071575004</v>
       </c>
       <c r="AB7" t="n">
-        <v>1836.180824742637</v>
+        <v>1943.607284898593</v>
       </c>
       <c r="AC7" t="n">
-        <v>1660.938303925173</v>
+        <v>1758.112133497828</v>
       </c>
       <c r="AD7" t="n">
-        <v>1341997.968111933</v>
+        <v>1420512.071575004</v>
       </c>
       <c r="AE7" t="n">
-        <v>1836180.824742637</v>
+        <v>1943607.284898593</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.262028437059105e-06</v>
+        <v>2.235146139452382e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.11154513888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1660938.303925173</v>
+        <v>1758112.133497828</v>
       </c>
     </row>
     <row r="8">
@@ -18889,28 +18889,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1297.819891149753</v>
+        <v>1386.062815994016</v>
       </c>
       <c r="AB8" t="n">
-        <v>1775.734430843781</v>
+        <v>1896.472293618791</v>
       </c>
       <c r="AC8" t="n">
-        <v>1606.260829022977</v>
+        <v>1715.475639631394</v>
       </c>
       <c r="AD8" t="n">
-        <v>1297819.891149753</v>
+        <v>1386062.815994016</v>
       </c>
       <c r="AE8" t="n">
-        <v>1775734.430843781</v>
+        <v>1896472.293618791</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.277054954485057e-06</v>
+        <v>2.261759218387669e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.90972222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1606260.829022977</v>
+        <v>1715475.639631394</v>
       </c>
     </row>
     <row r="9">
@@ -18995,28 +18995,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1268.291095712685</v>
+        <v>1356.534020556948</v>
       </c>
       <c r="AB9" t="n">
-        <v>1735.331830208271</v>
+        <v>1856.069692983281</v>
       </c>
       <c r="AC9" t="n">
-        <v>1569.714195886713</v>
+        <v>1678.929006495131</v>
       </c>
       <c r="AD9" t="n">
-        <v>1268291.095712685</v>
+        <v>1356534.020556948</v>
       </c>
       <c r="AE9" t="n">
-        <v>1735331.830208271</v>
+        <v>1856069.692983281</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.289096071097906e-06</v>
+        <v>2.283084930647071e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.75347222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1569714.195886713</v>
+        <v>1678929.006495131</v>
       </c>
     </row>
     <row r="10">
@@ -19101,28 +19101,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1241.501967130639</v>
+        <v>1329.744891974901</v>
       </c>
       <c r="AB10" t="n">
-        <v>1698.677762629373</v>
+        <v>1819.415625404383</v>
       </c>
       <c r="AC10" t="n">
-        <v>1536.558341073238</v>
+        <v>1645.773151681656</v>
       </c>
       <c r="AD10" t="n">
-        <v>1241501.967130639</v>
+        <v>1329744.891974901</v>
       </c>
       <c r="AE10" t="n">
-        <v>1698677.762629373</v>
+        <v>1819415.625404383</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.298848380420709e-06</v>
+        <v>2.300356995121628e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.62543402777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1536558.341073238</v>
+        <v>1645773.151681656</v>
       </c>
     </row>
     <row r="11">
@@ -19207,28 +19207,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1218.3185310983</v>
+        <v>1306.561455942563</v>
       </c>
       <c r="AB11" t="n">
-        <v>1666.957162668914</v>
+        <v>1787.695025443924</v>
       </c>
       <c r="AC11" t="n">
-        <v>1507.865110652864</v>
+        <v>1617.079921261282</v>
       </c>
       <c r="AD11" t="n">
-        <v>1218318.5310983</v>
+        <v>1306561.455942563</v>
       </c>
       <c r="AE11" t="n">
-        <v>1666957.162668914</v>
+        <v>1787695.025443924</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.30680944925565e-06</v>
+        <v>2.314456639590654e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.52560763888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>1507865.110652864</v>
+        <v>1617079.921261282</v>
       </c>
     </row>
     <row r="12">
@@ -19313,28 +19313,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1195.562326673758</v>
+        <v>1273.991089282257</v>
       </c>
       <c r="AB12" t="n">
-        <v>1635.821119842369</v>
+        <v>1743.130812876127</v>
       </c>
       <c r="AC12" t="n">
-        <v>1479.700648053974</v>
+        <v>1576.76885459469</v>
       </c>
       <c r="AD12" t="n">
-        <v>1195562.326673758</v>
+        <v>1273991.089282257</v>
       </c>
       <c r="AE12" t="n">
-        <v>1635821.119842369</v>
+        <v>1743130.812876127</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.313178304323604e-06</v>
+        <v>2.325736355165876e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.4453125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1479700.648053974</v>
+        <v>1576768.85459469</v>
       </c>
     </row>
     <row r="13">
@@ -19419,28 +19419,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1174.901118751582</v>
+        <v>1253.329881360081</v>
       </c>
       <c r="AB13" t="n">
-        <v>1607.551543655085</v>
+        <v>1714.861236688843</v>
       </c>
       <c r="AC13" t="n">
-        <v>1454.129080541405</v>
+        <v>1551.197287082121</v>
       </c>
       <c r="AD13" t="n">
-        <v>1174901.118751582</v>
+        <v>1253329.881360081</v>
       </c>
       <c r="AE13" t="n">
-        <v>1607551.543655085</v>
+        <v>1714861.236688843</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.317755918903695e-06</v>
+        <v>2.333843650735565e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1454129.080541405</v>
+        <v>1551197.287082121</v>
       </c>
     </row>
     <row r="14">
@@ -19525,28 +19525,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1156.949258866468</v>
+        <v>1235.378021474967</v>
       </c>
       <c r="AB14" t="n">
-        <v>1582.989016980111</v>
+        <v>1690.298710013868</v>
       </c>
       <c r="AC14" t="n">
-        <v>1431.910766938567</v>
+        <v>1528.978973479283</v>
       </c>
       <c r="AD14" t="n">
-        <v>1156949.258866468</v>
+        <v>1235378.021474967</v>
       </c>
       <c r="AE14" t="n">
-        <v>1582989.016980111</v>
+        <v>1690298.710013868</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.32223402012335e-06</v>
+        <v>2.341774700749392e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.33246527777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>1431910.766938567</v>
+        <v>1528978.973479284</v>
       </c>
     </row>
     <row r="15">
@@ -19631,28 +19631,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1152.415084070507</v>
+        <v>1230.843846679005</v>
       </c>
       <c r="AB15" t="n">
-        <v>1576.785158990601</v>
+        <v>1684.094852024359</v>
       </c>
       <c r="AC15" t="n">
-        <v>1426.298996448408</v>
+        <v>1523.367202989124</v>
       </c>
       <c r="AD15" t="n">
-        <v>1152415.084070507</v>
+        <v>1230843.846679005</v>
       </c>
       <c r="AE15" t="n">
-        <v>1576785.158990601</v>
+        <v>1684094.852024359</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.323229153727717e-06</v>
+        <v>2.343537156308021e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.32161458333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1426298.996448408</v>
+        <v>1523367.202989124</v>
       </c>
     </row>
   </sheetData>
@@ -19928,28 +19928,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3654.265020373426</v>
+        <v>3804.21264443479</v>
       </c>
       <c r="AB2" t="n">
-        <v>4999.926615669936</v>
+        <v>5205.091570133002</v>
       </c>
       <c r="AC2" t="n">
-        <v>4522.740636911289</v>
+        <v>4708.324936071213</v>
       </c>
       <c r="AD2" t="n">
-        <v>3654265.020373425</v>
+        <v>3804212.64443479</v>
       </c>
       <c r="AE2" t="n">
-        <v>4999926.615669936</v>
+        <v>5205091.570133002</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.035835764990875e-07</v>
+        <v>1.226988321056309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.07378472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>4522740.636911289</v>
+        <v>4708324.936071212</v>
       </c>
     </row>
     <row r="3">
@@ -20034,28 +20034,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2070.183738483926</v>
+        <v>2180.037254915416</v>
       </c>
       <c r="AB3" t="n">
-        <v>2832.516721054497</v>
+        <v>2982.823148631166</v>
       </c>
       <c r="AC3" t="n">
-        <v>2562.185300659242</v>
+        <v>2698.146693744388</v>
       </c>
       <c r="AD3" t="n">
-        <v>2070183.738483927</v>
+        <v>2180037.254915416</v>
       </c>
       <c r="AE3" t="n">
-        <v>2832516.721054497</v>
+        <v>2982823.148631166</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.955083586551667e-07</v>
+        <v>1.736079650496801e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.25434027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2562185.300659243</v>
+        <v>2698146.693744388</v>
       </c>
     </row>
     <row r="4">
@@ -20140,28 +20140,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1752.959146204282</v>
+        <v>1852.810470941947</v>
       </c>
       <c r="AB4" t="n">
-        <v>2398.476038936192</v>
+        <v>2535.097026571814</v>
       </c>
       <c r="AC4" t="n">
-        <v>2169.568852062384</v>
+        <v>2293.150924386823</v>
       </c>
       <c r="AD4" t="n">
-        <v>1752959.146204283</v>
+        <v>1852810.470941947</v>
       </c>
       <c r="AE4" t="n">
-        <v>2398476.038936192</v>
+        <v>2535097.026571814</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.103736985306218e-06</v>
+        <v>1.924820924938667e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.17100694444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>2169568.852062385</v>
+        <v>2293150.924386823</v>
       </c>
     </row>
     <row r="5">
@@ -20246,28 +20246,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1610.783861719907</v>
+        <v>1700.718335618317</v>
       </c>
       <c r="AB5" t="n">
-        <v>2203.945542373797</v>
+        <v>2326.997857190569</v>
       </c>
       <c r="AC5" t="n">
-        <v>1993.604073066637</v>
+        <v>2104.912447662305</v>
       </c>
       <c r="AD5" t="n">
-        <v>1610783.861719907</v>
+        <v>1700718.335618317</v>
       </c>
       <c r="AE5" t="n">
-        <v>2203945.542373797</v>
+        <v>2326997.857190569</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.160971403183846e-06</v>
+        <v>2.02463275205342e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.22699652777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1993604.073066637</v>
+        <v>2104912.447662305</v>
       </c>
     </row>
     <row r="6">
@@ -20352,28 +20352,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1524.924017770068</v>
+        <v>1614.943743014498</v>
       </c>
       <c r="AB6" t="n">
-        <v>2086.468316012646</v>
+        <v>2209.637275482068</v>
       </c>
       <c r="AC6" t="n">
-        <v>1887.338708309072</v>
+        <v>1998.752595155453</v>
       </c>
       <c r="AD6" t="n">
-        <v>1524924.017770068</v>
+        <v>1614943.743014498</v>
       </c>
       <c r="AE6" t="n">
-        <v>2086468.316012647</v>
+        <v>2209637.275482068</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.195780069593238e-06</v>
+        <v>2.085336026806344e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.6953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1887338.708309073</v>
+        <v>1998752.595155453</v>
       </c>
     </row>
     <row r="7">
@@ -20458,28 +20458,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1470.563874605072</v>
+        <v>1560.41300764891</v>
       </c>
       <c r="AB7" t="n">
-        <v>2012.090369934039</v>
+        <v>2135.025917628613</v>
       </c>
       <c r="AC7" t="n">
-        <v>1820.059289014104</v>
+        <v>1931.262040577833</v>
       </c>
       <c r="AD7" t="n">
-        <v>1470563.874605072</v>
+        <v>1560413.00764891</v>
       </c>
       <c r="AE7" t="n">
-        <v>2012090.369934039</v>
+        <v>2135025.917628613</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.220838409277311e-06</v>
+        <v>2.129035583141083e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.33289930555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1820059.289014104</v>
+        <v>1931262.040577833</v>
       </c>
     </row>
     <row r="8">
@@ -20564,28 +20564,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1432.618907437763</v>
+        <v>1512.636530496919</v>
       </c>
       <c r="AB8" t="n">
-        <v>1960.172391841922</v>
+        <v>2069.656033839844</v>
       </c>
       <c r="AC8" t="n">
-        <v>1773.096289883759</v>
+        <v>1872.130966750656</v>
       </c>
       <c r="AD8" t="n">
-        <v>1432618.907437763</v>
+        <v>1512636.530496919</v>
       </c>
       <c r="AE8" t="n">
-        <v>1960172.391841922</v>
+        <v>2069656.033839845</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.237608971244861e-06</v>
+        <v>2.158281978820363e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.09635416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1773096.289883759</v>
+        <v>1872130.966750656</v>
       </c>
     </row>
     <row r="9">
@@ -20670,28 +20670,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1391.993813376828</v>
+        <v>1481.928197766687</v>
       </c>
       <c r="AB9" t="n">
-        <v>1904.587345895092</v>
+        <v>2027.639538242315</v>
       </c>
       <c r="AC9" t="n">
-        <v>1722.816202707992</v>
+        <v>1834.124466522433</v>
       </c>
       <c r="AD9" t="n">
-        <v>1391993.813376828</v>
+        <v>1481928.197766687</v>
       </c>
       <c r="AE9" t="n">
-        <v>1904587.345895092</v>
+        <v>2027639.538242315</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.250284395987777e-06</v>
+        <v>2.180386812764005e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.92491319444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1722816.202707992</v>
+        <v>1834124.466522433</v>
       </c>
     </row>
     <row r="10">
@@ -20776,28 +20776,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1365.087762075384</v>
+        <v>1455.022146465243</v>
       </c>
       <c r="AB10" t="n">
-        <v>1867.773299493247</v>
+        <v>1990.825491840471</v>
       </c>
       <c r="AC10" t="n">
-        <v>1689.515637225901</v>
+        <v>1800.823901040343</v>
       </c>
       <c r="AD10" t="n">
-        <v>1365087.762075384</v>
+        <v>1455022.146465243</v>
       </c>
       <c r="AE10" t="n">
-        <v>1867773.299493247</v>
+        <v>1990825.491840471</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.26042473578211e-06</v>
+        <v>2.198070679918918e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.78819444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1689515.637225901</v>
+        <v>1800823.901040343</v>
       </c>
     </row>
     <row r="11">
@@ -20882,28 +20882,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1341.253477194718</v>
+        <v>1431.187861584578</v>
       </c>
       <c r="AB11" t="n">
-        <v>1835.162179425083</v>
+        <v>1958.214371772307</v>
       </c>
       <c r="AC11" t="n">
-        <v>1660.016876687047</v>
+        <v>1771.325140501489</v>
       </c>
       <c r="AD11" t="n">
-        <v>1341253.477194718</v>
+        <v>1431187.861584578</v>
       </c>
       <c r="AE11" t="n">
-        <v>1835162.179425083</v>
+        <v>1958214.371772307</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.269005023300392e-06</v>
+        <v>2.213033952126922e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.67317708333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1660016.876687048</v>
+        <v>1771325.140501489</v>
       </c>
     </row>
     <row r="12">
@@ -20988,28 +20988,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1320.57028059641</v>
+        <v>1410.504664986269</v>
       </c>
       <c r="AB12" t="n">
-        <v>1806.862517361042</v>
+        <v>1929.914709708266</v>
       </c>
       <c r="AC12" t="n">
-        <v>1634.418094651574</v>
+        <v>1745.726358466015</v>
       </c>
       <c r="AD12" t="n">
-        <v>1320570.28059641</v>
+        <v>1410504.664986269</v>
       </c>
       <c r="AE12" t="n">
-        <v>1806862.517361042</v>
+        <v>1929914.709708266</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.276025258542622e-06</v>
+        <v>2.225276629388016e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.58203125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1634418.094651574</v>
+        <v>1745726.358466015</v>
       </c>
     </row>
     <row r="13">
@@ -21094,28 +21094,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1300.118363457281</v>
+        <v>1390.05274784714</v>
       </c>
       <c r="AB13" t="n">
-        <v>1778.879302056381</v>
+        <v>1901.931494403605</v>
       </c>
       <c r="AC13" t="n">
-        <v>1609.105558140901</v>
+        <v>1720.413821955342</v>
       </c>
       <c r="AD13" t="n">
-        <v>1300118.363457281</v>
+        <v>1390052.74784714</v>
       </c>
       <c r="AE13" t="n">
-        <v>1778879.302056381</v>
+        <v>1901931.494403605</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.281972957845067e-06</v>
+        <v>2.235648897623109e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.50607638888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1609105.558140901</v>
+        <v>1720413.821955342</v>
       </c>
     </row>
     <row r="14">
@@ -21200,28 +21200,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1283.54738040297</v>
+        <v>1363.479662607555</v>
       </c>
       <c r="AB14" t="n">
-        <v>1756.206151981297</v>
+        <v>1865.573026857022</v>
       </c>
       <c r="AC14" t="n">
-        <v>1588.596301687017</v>
+        <v>1687.525355521976</v>
       </c>
       <c r="AD14" t="n">
-        <v>1283547.38040297</v>
+        <v>1363479.662607555</v>
       </c>
       <c r="AE14" t="n">
-        <v>1756206.151981297</v>
+        <v>1865573.026857022</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.286263101604208e-06</v>
+        <v>2.243130533727111e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.44965277777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>1588596.301687017</v>
+        <v>1687525.355521976</v>
       </c>
     </row>
     <row r="15">
@@ -21306,28 +21306,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1265.589951963561</v>
+        <v>1345.522234168146</v>
       </c>
       <c r="AB15" t="n">
-        <v>1731.636006164667</v>
+        <v>1841.002881040392</v>
       </c>
       <c r="AC15" t="n">
-        <v>1566.37109610271</v>
+        <v>1665.300149937669</v>
       </c>
       <c r="AD15" t="n">
-        <v>1265589.951963561</v>
+        <v>1345522.234168146</v>
       </c>
       <c r="AE15" t="n">
-        <v>1731636.006164667</v>
+        <v>1841002.881040392</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.291040761699615e-06</v>
+        <v>2.251462355752022e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.39105902777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>1566371.09610271</v>
+        <v>1665300.149937669</v>
       </c>
     </row>
     <row r="16">
@@ -21412,28 +21412,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1249.226910450568</v>
+        <v>1329.159192655153</v>
       </c>
       <c r="AB16" t="n">
-        <v>1709.247370880147</v>
+        <v>1818.614245755872</v>
       </c>
       <c r="AC16" t="n">
-        <v>1546.119200747097</v>
+        <v>1645.048254582056</v>
       </c>
       <c r="AD16" t="n">
-        <v>1249226.910450568</v>
+        <v>1329159.192655153</v>
       </c>
       <c r="AE16" t="n">
-        <v>1709247.370880147</v>
+        <v>1818614.245755872</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.29425836951897e-06</v>
+        <v>2.257073582830024e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.34982638888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>1546119.200747097</v>
+        <v>1645048.254582056</v>
       </c>
     </row>
     <row r="17">
@@ -21518,28 +21518,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1232.346159016882</v>
+        <v>1312.278441221467</v>
       </c>
       <c r="AB17" t="n">
-        <v>1686.150382042385</v>
+        <v>1795.51725691811</v>
       </c>
       <c r="AC17" t="n">
-        <v>1525.226556107184</v>
+        <v>1624.155609942143</v>
       </c>
       <c r="AD17" t="n">
-        <v>1232346.159016883</v>
+        <v>1312278.441221467</v>
       </c>
       <c r="AE17" t="n">
-        <v>1686150.382042385</v>
+        <v>1795517.25691811</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.296598447933047e-06</v>
+        <v>2.261154475250388e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.31944444444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>1525226.556107184</v>
+        <v>1624155.609942143</v>
       </c>
     </row>
     <row r="18">
@@ -21624,28 +21624,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1226.439276821159</v>
+        <v>1306.371559025743</v>
       </c>
       <c r="AB18" t="n">
-        <v>1678.068325228945</v>
+        <v>1787.43520010467</v>
       </c>
       <c r="AC18" t="n">
-        <v>1517.915839452781</v>
+        <v>1616.844893287739</v>
       </c>
       <c r="AD18" t="n">
-        <v>1226439.276821159</v>
+        <v>1306371.559025743</v>
       </c>
       <c r="AE18" t="n">
-        <v>1678068.325228945</v>
+        <v>1787435.20010467</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.298451010010858e-06</v>
+        <v>2.264385181749844e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.29557291666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1517915.839452781</v>
+        <v>1616844.893287739</v>
       </c>
     </row>
     <row r="19">
@@ -21730,28 +21730,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1230.89124898462</v>
+        <v>1310.823531189205</v>
       </c>
       <c r="AB19" t="n">
-        <v>1684.159709950143</v>
+        <v>1793.526584825868</v>
       </c>
       <c r="AC19" t="n">
-        <v>1523.425870965499</v>
+        <v>1622.354924800458</v>
       </c>
       <c r="AD19" t="n">
-        <v>1230891.24898462</v>
+        <v>1310823.531189205</v>
       </c>
       <c r="AE19" t="n">
-        <v>1684159.709950143</v>
+        <v>1793526.584825868</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.298548513278111e-06</v>
+        <v>2.264555218934026e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.29557291666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1523425.870965499</v>
+        <v>1622354.924800458</v>
       </c>
     </row>
   </sheetData>
@@ -22027,28 +22027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5272.861567425203</v>
+        <v>5458.935223254492</v>
       </c>
       <c r="AB2" t="n">
-        <v>7214.561818786277</v>
+        <v>7469.156003682258</v>
       </c>
       <c r="AC2" t="n">
-        <v>6526.01416450215</v>
+        <v>6756.310237716833</v>
       </c>
       <c r="AD2" t="n">
-        <v>5272861.567425204</v>
+        <v>5458935.223254492</v>
       </c>
       <c r="AE2" t="n">
-        <v>7214561.818786277</v>
+        <v>7469156.003682258</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.737092210335734e-07</v>
+        <v>9.752676523874411e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.60112847222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>6526014.16450215</v>
+        <v>6756310.237716833</v>
       </c>
     </row>
     <row r="3">
@@ -22133,28 +22133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2572.690926549712</v>
+        <v>2696.654689581334</v>
       </c>
       <c r="AB3" t="n">
-        <v>3520.069224818832</v>
+        <v>3689.681914293955</v>
       </c>
       <c r="AC3" t="n">
-        <v>3184.118758450176</v>
+        <v>3337.543850894691</v>
       </c>
       <c r="AD3" t="n">
-        <v>2572690.926549713</v>
+        <v>2696654.689581334</v>
       </c>
       <c r="AE3" t="n">
-        <v>3520069.224818832</v>
+        <v>3689681.914293955</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.906798011584216e-07</v>
+        <v>1.514096630937458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.9296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>3184118.758450176</v>
+        <v>3337543.850894691</v>
       </c>
     </row>
     <row r="4">
@@ -22239,28 +22239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2111.161849187165</v>
+        <v>2214.45085107964</v>
       </c>
       <c r="AB4" t="n">
-        <v>2888.584779945321</v>
+        <v>3029.909349123942</v>
       </c>
       <c r="AC4" t="n">
-        <v>2612.902302701541</v>
+        <v>2740.739053347918</v>
       </c>
       <c r="AD4" t="n">
-        <v>2111161.849187165</v>
+        <v>2214450.85107964</v>
       </c>
       <c r="AE4" t="n">
-        <v>2888584.779945321</v>
+        <v>3029909.349123942</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.012461253261021e-06</v>
+        <v>1.72111702827823e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.17144097222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2612902.302701541</v>
+        <v>2740739.053347918</v>
       </c>
     </row>
     <row r="5">
@@ -22345,28 +22345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1906.75961473001</v>
+        <v>2010.048527113932</v>
       </c>
       <c r="AB5" t="n">
-        <v>2608.912625170889</v>
+        <v>2750.237071879783</v>
       </c>
       <c r="AC5" t="n">
-        <v>2359.921665856445</v>
+        <v>2487.75830572155</v>
       </c>
       <c r="AD5" t="n">
-        <v>1906759.61473001</v>
+        <v>2010048.527113932</v>
       </c>
       <c r="AE5" t="n">
-        <v>2608912.625170888</v>
+        <v>2750237.071879783</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.077116475513328e-06</v>
+        <v>1.831026620993154e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.96050347222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>2359921.665856445</v>
+        <v>2487758.30572155</v>
       </c>
     </row>
     <row r="6">
@@ -22451,28 +22451,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1804.680392917388</v>
+        <v>1897.631969486011</v>
       </c>
       <c r="AB6" t="n">
-        <v>2469.243330469428</v>
+        <v>2596.423778264761</v>
       </c>
       <c r="AC6" t="n">
-        <v>2233.582212614206</v>
+        <v>2348.624736970832</v>
       </c>
       <c r="AD6" t="n">
-        <v>1804680.392917388</v>
+        <v>1897631.969486011</v>
       </c>
       <c r="AE6" t="n">
-        <v>2469243.330469428</v>
+        <v>2596423.778264761</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.11720836005406e-06</v>
+        <v>1.899180167567473e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH6" t="n">
-        <v>2233582.212614206</v>
+        <v>2348624.736970832</v>
       </c>
     </row>
     <row r="7">
@@ -22557,28 +22557,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1726.038671203342</v>
+        <v>1829.242242732693</v>
       </c>
       <c r="AB7" t="n">
-        <v>2361.642257392369</v>
+        <v>2502.849936979066</v>
       </c>
       <c r="AC7" t="n">
-        <v>2136.250434932566</v>
+        <v>2263.981451765732</v>
       </c>
       <c r="AD7" t="n">
-        <v>1726038.671203342</v>
+        <v>1829242.242732693</v>
       </c>
       <c r="AE7" t="n">
-        <v>2361642.257392369</v>
+        <v>2502849.936979066</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.144971519536492e-06</v>
+        <v>1.946375698645933e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.83637152777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>2136250.434932566</v>
+        <v>2263981.451765732</v>
       </c>
     </row>
     <row r="8">
@@ -22663,28 +22663,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1675.873621324487</v>
+        <v>1768.910449239132</v>
       </c>
       <c r="AB8" t="n">
-        <v>2293.004223022314</v>
+        <v>2420.301315470297</v>
       </c>
       <c r="AC8" t="n">
-        <v>2074.163118228703</v>
+        <v>2189.311154836042</v>
       </c>
       <c r="AD8" t="n">
-        <v>1675873.621324487</v>
+        <v>1768910.449239132</v>
       </c>
       <c r="AE8" t="n">
-        <v>2293004.223022314</v>
+        <v>2420301.315470297</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.165864473452084e-06</v>
+        <v>1.981892335593114e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.51736111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>2074163.118228703</v>
+        <v>2189311.154836042</v>
       </c>
     </row>
     <row r="9">
@@ -22769,28 +22769,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1640.997636588678</v>
+        <v>1733.863872302731</v>
       </c>
       <c r="AB9" t="n">
-        <v>2245.285362086923</v>
+        <v>2372.34904276006</v>
       </c>
       <c r="AC9" t="n">
-        <v>2030.998478407145</v>
+        <v>2145.935379731833</v>
       </c>
       <c r="AD9" t="n">
-        <v>1640997.636588678</v>
+        <v>1733863.872302731</v>
       </c>
       <c r="AE9" t="n">
-        <v>2245285.362086923</v>
+        <v>2372349.04276006</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.180075446610888e-06</v>
+        <v>2.006050048111241e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.30685763888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>2030998.478407145</v>
+        <v>2145935.379731833</v>
       </c>
     </row>
     <row r="10">
@@ -22875,28 +22875,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1610.225451432238</v>
+        <v>1692.924943531584</v>
       </c>
       <c r="AB10" t="n">
-        <v>2203.181500782885</v>
+        <v>2316.334594317308</v>
       </c>
       <c r="AC10" t="n">
-        <v>1992.912950532823</v>
+        <v>2095.266871631685</v>
       </c>
       <c r="AD10" t="n">
-        <v>1610225.451432238</v>
+        <v>1692924.943531584</v>
       </c>
       <c r="AE10" t="n">
-        <v>2203181.500782886</v>
+        <v>2316334.594317308</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.192686508884264e-06</v>
+        <v>2.02748801816044e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.12456597222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1992912.950532823</v>
+        <v>2095266.871631685</v>
       </c>
     </row>
     <row r="11">
@@ -22981,28 +22981,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1574.823976550295</v>
+        <v>1667.775463610367</v>
       </c>
       <c r="AB11" t="n">
-        <v>2154.743641046566</v>
+        <v>2281.923966372351</v>
       </c>
       <c r="AC11" t="n">
-        <v>1949.097932146775</v>
+        <v>2064.140345722175</v>
       </c>
       <c r="AD11" t="n">
-        <v>1574823.976550295</v>
+        <v>1667775.463610367</v>
       </c>
       <c r="AE11" t="n">
-        <v>2154743.641046565</v>
+        <v>2281923.966372351</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.202097749386784e-06</v>
+        <v>2.043486503271783e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.99001736111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1949097.932146775</v>
+        <v>2064140.345722175</v>
       </c>
     </row>
     <row r="12">
@@ -23087,28 +23087,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1553.733240306065</v>
+        <v>1646.684727366137</v>
       </c>
       <c r="AB12" t="n">
-        <v>2125.886365259595</v>
+        <v>2253.066690585381</v>
       </c>
       <c r="AC12" t="n">
-        <v>1922.994754259472</v>
+        <v>2038.037167834872</v>
       </c>
       <c r="AD12" t="n">
-        <v>1553733.240306065</v>
+        <v>1646684.727366137</v>
       </c>
       <c r="AE12" t="n">
-        <v>2125886.365259595</v>
+        <v>2253066.690585381</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.209532629383774e-06</v>
+        <v>2.056125306509743e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.88585069444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>1922994.754259472</v>
+        <v>2038037.167834872</v>
       </c>
     </row>
     <row r="13">
@@ -23193,28 +23193,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1533.511825045417</v>
+        <v>1626.463312105489</v>
       </c>
       <c r="AB13" t="n">
-        <v>2098.218532794097</v>
+        <v>2225.398858119883</v>
       </c>
       <c r="AC13" t="n">
-        <v>1897.967500892435</v>
+        <v>2013.009914467835</v>
       </c>
       <c r="AD13" t="n">
-        <v>1533511.825045417</v>
+        <v>1626463.312105489</v>
       </c>
       <c r="AE13" t="n">
-        <v>2098218.532794097</v>
+        <v>2225398.858119883</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.216779284570714e-06</v>
+        <v>2.068444140045477e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.78602430555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>1897967.500892435</v>
+        <v>2013009.914467834</v>
       </c>
     </row>
     <row r="14">
@@ -23299,28 +23299,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1514.68782717659</v>
+        <v>1607.639314236662</v>
       </c>
       <c r="AB14" t="n">
-        <v>2072.462708453792</v>
+        <v>2199.643033779578</v>
       </c>
       <c r="AC14" t="n">
-        <v>1874.669776278642</v>
+        <v>1989.712189854042</v>
       </c>
       <c r="AD14" t="n">
-        <v>1514687.82717659</v>
+        <v>1607639.314236662</v>
       </c>
       <c r="AE14" t="n">
-        <v>2072462.708453792</v>
+        <v>2199643.033779578</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.222990703302376e-06</v>
+        <v>2.079003140218963e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.69921875</v>
       </c>
       <c r="AH14" t="n">
-        <v>1874669.776278642</v>
+        <v>1989712.189854042</v>
       </c>
     </row>
     <row r="15">
@@ -23405,28 +23405,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1499.717728230441</v>
+        <v>1592.669215290514</v>
       </c>
       <c r="AB15" t="n">
-        <v>2051.979958641517</v>
+        <v>2179.160283967303</v>
       </c>
       <c r="AC15" t="n">
-        <v>1856.14187136073</v>
+        <v>1971.18428493613</v>
       </c>
       <c r="AD15" t="n">
-        <v>1499717.728230441</v>
+        <v>1592669.215290514</v>
       </c>
       <c r="AE15" t="n">
-        <v>2051979.958641517</v>
+        <v>2179160.283967303</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.227696323553636e-06</v>
+        <v>2.087002382774634e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.63628472222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>1856141.87136073</v>
+        <v>1971184.28493613</v>
       </c>
     </row>
     <row r="16">
@@ -23511,28 +23511,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1485.344265180781</v>
+        <v>1578.295752240854</v>
       </c>
       <c r="AB16" t="n">
-        <v>2032.313552384536</v>
+        <v>2159.493877710322</v>
       </c>
       <c r="AC16" t="n">
-        <v>1838.352399314941</v>
+        <v>1953.394812890341</v>
       </c>
       <c r="AD16" t="n">
-        <v>1485344.265180781</v>
+        <v>1578295.752240854</v>
       </c>
       <c r="AE16" t="n">
-        <v>2032313.552384536</v>
+        <v>2159493.877710322</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.230990257729518e-06</v>
+        <v>2.092601852563604e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.59071180555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>1838352.399314941</v>
+        <v>1953394.812890341</v>
       </c>
     </row>
     <row r="17">
@@ -23617,28 +23617,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1469.914583226104</v>
+        <v>1562.866070286177</v>
       </c>
       <c r="AB17" t="n">
-        <v>2011.201980824622</v>
+        <v>2138.382306150407</v>
       </c>
       <c r="AC17" t="n">
-        <v>1819.255686514428</v>
+        <v>1934.298100089828</v>
       </c>
       <c r="AD17" t="n">
-        <v>1469914.583226104</v>
+        <v>1562866.070286177</v>
       </c>
       <c r="AE17" t="n">
-        <v>2011201.980824622</v>
+        <v>2138382.306150407</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.235789990385803e-06</v>
+        <v>2.100761079970388e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.52560763888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>1819255.686514428</v>
+        <v>1934298.100089828</v>
       </c>
     </row>
     <row r="18">
@@ -23723,28 +23723,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1457.857532866803</v>
+        <v>1540.471684111577</v>
       </c>
       <c r="AB18" t="n">
-        <v>1994.704992603505</v>
+        <v>2107.74131901573</v>
       </c>
       <c r="AC18" t="n">
-        <v>1804.333147695466</v>
+        <v>1906.581445762388</v>
       </c>
       <c r="AD18" t="n">
-        <v>1457857.532866803</v>
+        <v>1540471.684111577</v>
       </c>
       <c r="AE18" t="n">
-        <v>1994704.992603505</v>
+        <v>2107741.31901573</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.238519250131533e-06</v>
+        <v>2.105400640652678e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.49088541666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1804333.147695466</v>
+        <v>1906581.445762388</v>
       </c>
     </row>
     <row r="19">
@@ -23829,28 +23829,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1445.032819048268</v>
+        <v>1527.646970293042</v>
       </c>
       <c r="AB19" t="n">
-        <v>1977.157653370543</v>
+        <v>2090.193979782768</v>
       </c>
       <c r="AC19" t="n">
-        <v>1788.460501891053</v>
+        <v>1890.708799957975</v>
       </c>
       <c r="AD19" t="n">
-        <v>1445032.819048268</v>
+        <v>1527646.970293042</v>
       </c>
       <c r="AE19" t="n">
-        <v>1977157.653370543</v>
+        <v>2090193.979782768</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.24209552152249e-06</v>
+        <v>2.111480064994988e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.44314236111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>1788460.501891053</v>
+        <v>1890708.799957975</v>
       </c>
     </row>
     <row r="20">
@@ -23935,28 +23935,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1433.426312877415</v>
+        <v>1516.04046412219</v>
       </c>
       <c r="AB20" t="n">
-        <v>1961.277119584669</v>
+        <v>2074.313445996893</v>
       </c>
       <c r="AC20" t="n">
-        <v>1774.095583961233</v>
+        <v>1876.343882028155</v>
       </c>
       <c r="AD20" t="n">
-        <v>1433426.312877415</v>
+        <v>1516040.46412219</v>
       </c>
       <c r="AE20" t="n">
-        <v>1961277.119584668</v>
+        <v>2074313.445996893</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.244542444053145e-06</v>
+        <v>2.115639671123937e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.41059027777778</v>
       </c>
       <c r="AH20" t="n">
-        <v>1774095.583961233</v>
+        <v>1876343.882028155</v>
       </c>
     </row>
     <row r="21">
@@ -24041,28 +24041,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1420.344809584293</v>
+        <v>1502.958960829068</v>
       </c>
       <c r="AB21" t="n">
-        <v>1943.378429663824</v>
+        <v>2056.414756076048</v>
       </c>
       <c r="AC21" t="n">
-        <v>1757.905119885465</v>
+        <v>1860.153417952387</v>
       </c>
       <c r="AD21" t="n">
-        <v>1420344.809584293</v>
+        <v>1502958.960829068</v>
       </c>
       <c r="AE21" t="n">
-        <v>1943378.429663824</v>
+        <v>2056414.756076049</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.246895254178775e-06</v>
+        <v>2.119639292401773e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.38020833333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1757905.119885465</v>
+        <v>1860153.417952387</v>
       </c>
     </row>
     <row r="22">
@@ -24147,28 +24147,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1407.038770847282</v>
+        <v>1489.652922092057</v>
       </c>
       <c r="AB22" t="n">
-        <v>1925.172520442847</v>
+        <v>2038.208846855071</v>
       </c>
       <c r="AC22" t="n">
-        <v>1741.436757088384</v>
+        <v>1843.685055155306</v>
       </c>
       <c r="AD22" t="n">
-        <v>1407038.770847282</v>
+        <v>1489652.922092057</v>
       </c>
       <c r="AE22" t="n">
-        <v>1925172.520442847</v>
+        <v>2038208.846855071</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.249718626329531e-06</v>
+        <v>2.124438837935176e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.34331597222222</v>
       </c>
       <c r="AH22" t="n">
-        <v>1741436.757088384</v>
+        <v>1843685.055155306</v>
       </c>
     </row>
     <row r="23">
@@ -24253,28 +24253,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1399.114009332285</v>
+        <v>1481.72816057706</v>
       </c>
       <c r="AB23" t="n">
-        <v>1914.329512122224</v>
+        <v>2027.365838534449</v>
       </c>
       <c r="AC23" t="n">
-        <v>1731.628590263623</v>
+        <v>1833.876888330546</v>
       </c>
       <c r="AD23" t="n">
-        <v>1399114.009332285</v>
+        <v>1481728.16057706</v>
       </c>
       <c r="AE23" t="n">
-        <v>1914329.512122224</v>
+        <v>2027365.838534449</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.250659750379783e-06</v>
+        <v>2.12603868644631e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.33029513888889</v>
       </c>
       <c r="AH23" t="n">
-        <v>1731628.590263623</v>
+        <v>1833876.888330546</v>
       </c>
     </row>
     <row r="24">
@@ -24359,28 +24359,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1385.898333433814</v>
+        <v>1468.512484678588</v>
       </c>
       <c r="AB24" t="n">
-        <v>1896.247241323464</v>
+        <v>2009.283567735688</v>
       </c>
       <c r="AC24" t="n">
-        <v>1715.27206601127</v>
+        <v>1817.520364078192</v>
       </c>
       <c r="AD24" t="n">
-        <v>1385898.333433814</v>
+        <v>1468512.484678588</v>
       </c>
       <c r="AE24" t="n">
-        <v>1896247.241323464</v>
+        <v>2009283.567735688</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.253671347340589e-06</v>
+        <v>2.13115820168194e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.29123263888889</v>
       </c>
       <c r="AH24" t="n">
-        <v>1715272.06601127</v>
+        <v>1817520.364078192</v>
       </c>
     </row>
     <row r="25">
@@ -24465,28 +24465,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1376.677482356967</v>
+        <v>1459.291633601741</v>
       </c>
       <c r="AB25" t="n">
-        <v>1883.630866084882</v>
+        <v>1996.667192497107</v>
       </c>
       <c r="AC25" t="n">
-        <v>1703.859779918265</v>
+        <v>1806.108077985187</v>
       </c>
       <c r="AD25" t="n">
-        <v>1376677.482356967</v>
+        <v>1459291.633601741</v>
       </c>
       <c r="AE25" t="n">
-        <v>1883630.866084882</v>
+        <v>1996667.192497107</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.254612471390841e-06</v>
+        <v>2.132758050193074e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.27821180555556</v>
       </c>
       <c r="AH25" t="n">
-        <v>1703859.779918265</v>
+        <v>1806108.077985187</v>
       </c>
     </row>
     <row r="26">
@@ -24571,28 +24571,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1375.804652225453</v>
+        <v>1458.418803470227</v>
       </c>
       <c r="AB26" t="n">
-        <v>1882.436621392397</v>
+        <v>1995.472947804622</v>
       </c>
       <c r="AC26" t="n">
-        <v>1702.779512263097</v>
+        <v>1805.02781033002</v>
       </c>
       <c r="AD26" t="n">
-        <v>1375804.652225453</v>
+        <v>1458418.803470227</v>
       </c>
       <c r="AE26" t="n">
-        <v>1882436.621392397</v>
+        <v>1995472.947804621</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.25404779696069e-06</v>
+        <v>2.131798141086393e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>16.28689236111111</v>
       </c>
       <c r="AH26" t="n">
-        <v>1702779.512263097</v>
+        <v>1805027.81033002</v>
       </c>
     </row>
     <row r="27">
@@ -24677,28 +24677,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1378.639561973695</v>
+        <v>1461.253713218469</v>
       </c>
       <c r="AB27" t="n">
-        <v>1886.315469977333</v>
+        <v>1999.351796389557</v>
       </c>
       <c r="AC27" t="n">
-        <v>1706.288168983086</v>
+        <v>1808.536467050008</v>
       </c>
       <c r="AD27" t="n">
-        <v>1378639.561973695</v>
+        <v>1461253.713218469</v>
       </c>
       <c r="AE27" t="n">
-        <v>1886315.469977333</v>
+        <v>1999351.796389557</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.255271258226017e-06</v>
+        <v>2.133877944150868e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>16.27170138888889</v>
       </c>
       <c r="AH27" t="n">
-        <v>1706288.168983086</v>
+        <v>1808536.467050008</v>
       </c>
     </row>
   </sheetData>
@@ -24974,28 +24974,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2491.426137310142</v>
+        <v>2616.332040005143</v>
       </c>
       <c r="AB2" t="n">
-        <v>3408.87915503177</v>
+        <v>3579.7809215586</v>
       </c>
       <c r="AC2" t="n">
-        <v>3083.540512867352</v>
+        <v>3238.131654658991</v>
       </c>
       <c r="AD2" t="n">
-        <v>2491426.137310142</v>
+        <v>2616332.040005143</v>
       </c>
       <c r="AE2" t="n">
-        <v>3408879.15503177</v>
+        <v>3579780.9215586</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.603386608496726e-07</v>
+        <v>1.551394196003166e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.68142361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>3083540.512867352</v>
+        <v>3238131.654658991</v>
       </c>
     </row>
     <row r="3">
@@ -25080,28 +25080,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1603.672896578719</v>
+        <v>1699.754360190259</v>
       </c>
       <c r="AB3" t="n">
-        <v>2194.216006153982</v>
+        <v>2325.678903482305</v>
       </c>
       <c r="AC3" t="n">
-        <v>1984.803110128152</v>
+        <v>2103.719373044795</v>
       </c>
       <c r="AD3" t="n">
-        <v>1603672.896578719</v>
+        <v>1699754.360190259</v>
       </c>
       <c r="AE3" t="n">
-        <v>2194216.006153982</v>
+        <v>2325678.903482305</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.120069302722752e-06</v>
+        <v>2.019750005944477e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.7265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1984803.110128152</v>
+        <v>2103719.373044795</v>
       </c>
     </row>
     <row r="4">
@@ -25186,28 +25186,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1406.341089880527</v>
+        <v>1492.729155784892</v>
       </c>
       <c r="AB4" t="n">
-        <v>1924.217922564619</v>
+        <v>2042.41788550746</v>
       </c>
       <c r="AC4" t="n">
-        <v>1740.573264691868</v>
+        <v>1847.492389066134</v>
       </c>
       <c r="AD4" t="n">
-        <v>1406341.089880527</v>
+        <v>1492729.155784892</v>
       </c>
       <c r="AE4" t="n">
-        <v>1924217.922564619</v>
+        <v>2042417.88550746</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.21149937579293e-06</v>
+        <v>2.184620063697239e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.23784722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1740573.264691868</v>
+        <v>1847492.389066134</v>
       </c>
     </row>
     <row r="5">
@@ -25292,28 +25292,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1303.33934942238</v>
+        <v>1389.812666672766</v>
       </c>
       <c r="AB5" t="n">
-        <v>1783.286397153702</v>
+        <v>1901.603004749192</v>
       </c>
       <c r="AC5" t="n">
-        <v>1613.09204626753</v>
+        <v>1720.116682892508</v>
       </c>
       <c r="AD5" t="n">
-        <v>1303339.34942238</v>
+        <v>1389812.666672766</v>
       </c>
       <c r="AE5" t="n">
-        <v>1783286.397153702</v>
+        <v>1901603.004749192</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.260574314790509e-06</v>
+        <v>2.273113791800615e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.52821180555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1613092.04626753</v>
+        <v>1720116.682892508</v>
       </c>
     </row>
     <row r="6">
@@ -25398,28 +25398,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1249.780691881864</v>
+        <v>1326.645952279647</v>
       </c>
       <c r="AB6" t="n">
-        <v>1710.005079065558</v>
+        <v>1815.175519397764</v>
       </c>
       <c r="AC6" t="n">
-        <v>1546.804594326742</v>
+        <v>1641.937715441283</v>
       </c>
       <c r="AD6" t="n">
-        <v>1249780.691881863</v>
+        <v>1326645.952279646</v>
       </c>
       <c r="AE6" t="n">
-        <v>1710005.079065558</v>
+        <v>1815175.519397764</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.288268056299516e-06</v>
+        <v>2.323052161186753e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.15060763888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1546804.594326742</v>
+        <v>1641937.715441283</v>
       </c>
     </row>
     <row r="7">
@@ -25504,28 +25504,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1197.113694257532</v>
+        <v>1283.501670653346</v>
       </c>
       <c r="AB7" t="n">
-        <v>1637.943769411996</v>
+        <v>1756.143609885289</v>
       </c>
       <c r="AC7" t="n">
-        <v>1481.620714927833</v>
+        <v>1588.539728520873</v>
       </c>
       <c r="AD7" t="n">
-        <v>1197113.694257532</v>
+        <v>1283501.670653346</v>
       </c>
       <c r="AE7" t="n">
-        <v>1637943.769411996</v>
+        <v>1756143.609885289</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.308631101526727e-06</v>
+        <v>2.359771550441265e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.88368055555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1481620.714927833</v>
+        <v>1588539.728520873</v>
       </c>
     </row>
     <row r="8">
@@ -25610,28 +25610,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1162.158108200488</v>
+        <v>1248.546084596302</v>
       </c>
       <c r="AB8" t="n">
-        <v>1590.115994437131</v>
+        <v>1708.315834910424</v>
       </c>
       <c r="AC8" t="n">
-        <v>1438.357555669865</v>
+        <v>1545.276569262905</v>
       </c>
       <c r="AD8" t="n">
-        <v>1162158.108200488</v>
+        <v>1248546.084596302</v>
       </c>
       <c r="AE8" t="n">
-        <v>1590115.994437131</v>
+        <v>1708315.834910424</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.324107015899408e-06</v>
+        <v>2.387678286274695e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.68836805555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1438357.555669865</v>
+        <v>1545276.569262905</v>
       </c>
     </row>
     <row r="9">
@@ -25716,28 +25716,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1133.702007552069</v>
+        <v>1220.089983947883</v>
       </c>
       <c r="AB9" t="n">
-        <v>1551.181102135404</v>
+        <v>1669.380942608697</v>
       </c>
       <c r="AC9" t="n">
-        <v>1403.138554843951</v>
+        <v>1510.057568436991</v>
       </c>
       <c r="AD9" t="n">
-        <v>1133702.007552069</v>
+        <v>1220089.983947883</v>
       </c>
       <c r="AE9" t="n">
-        <v>1551181.102135404</v>
+        <v>1669380.942608697</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.333779462382333e-06</v>
+        <v>2.405119996170589e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.56467013888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1403138.554843951</v>
+        <v>1510057.568436991</v>
       </c>
     </row>
     <row r="10">
@@ -25822,28 +25822,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1106.640045040019</v>
+        <v>1183.41996458323</v>
       </c>
       <c r="AB10" t="n">
-        <v>1514.153731136892</v>
+        <v>1619.207404346901</v>
       </c>
       <c r="AC10" t="n">
-        <v>1369.645024165295</v>
+        <v>1464.672522247897</v>
       </c>
       <c r="AD10" t="n">
-        <v>1106640.045040019</v>
+        <v>1183419.96458323</v>
       </c>
       <c r="AE10" t="n">
-        <v>1514153.731136892</v>
+        <v>1619207.404346901</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.342841017508442e-06</v>
+        <v>2.421460124388847e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.45399305555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1369645.024165295</v>
+        <v>1464672.522247897</v>
       </c>
     </row>
     <row r="11">
@@ -25928,28 +25928,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1082.352504974501</v>
+        <v>1159.132424517712</v>
       </c>
       <c r="AB11" t="n">
-        <v>1480.922447328605</v>
+        <v>1585.976120538614</v>
       </c>
       <c r="AC11" t="n">
-        <v>1339.585287443271</v>
+        <v>1434.612785525874</v>
       </c>
       <c r="AD11" t="n">
-        <v>1082352.504974501</v>
+        <v>1159132.424517713</v>
       </c>
       <c r="AE11" t="n">
-        <v>1480922.447328605</v>
+        <v>1585976.120538614</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.348949931076605e-06</v>
+        <v>2.432475941165201e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.38020833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1339585.287443271</v>
+        <v>1434612.785525874</v>
       </c>
     </row>
     <row r="12">
@@ -26034,28 +26034,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1077.8742460146</v>
+        <v>1154.654165557811</v>
       </c>
       <c r="AB12" t="n">
-        <v>1474.795095852826</v>
+        <v>1579.848769062835</v>
       </c>
       <c r="AC12" t="n">
-        <v>1334.042721792548</v>
+        <v>1429.070219875151</v>
       </c>
       <c r="AD12" t="n">
-        <v>1077874.246014599</v>
+        <v>1154654.165557811</v>
       </c>
       <c r="AE12" t="n">
-        <v>1474795.095852826</v>
+        <v>1579848.769062835</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.351088050825462e-06</v>
+        <v>2.436331477036924e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1334042.721792548</v>
+        <v>1429070.219875151</v>
       </c>
     </row>
     <row r="13">
@@ -26140,28 +26140,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1083.629260971498</v>
+        <v>1160.409180514709</v>
       </c>
       <c r="AB13" t="n">
-        <v>1482.669361210194</v>
+        <v>1587.723034420203</v>
       </c>
       <c r="AC13" t="n">
-        <v>1341.165478315811</v>
+        <v>1436.192976398413</v>
       </c>
       <c r="AD13" t="n">
-        <v>1083629.260971498</v>
+        <v>1160409.180514709</v>
       </c>
       <c r="AE13" t="n">
-        <v>1482669.361210194</v>
+        <v>1587723.034420203</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.35088442037319e-06</v>
+        <v>2.435964283144379e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.35633680555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>1341165.478315811</v>
+        <v>1436192.976398413</v>
       </c>
     </row>
   </sheetData>
@@ -26437,28 +26437,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1798.133897368187</v>
+        <v>1909.069202507331</v>
       </c>
       <c r="AB2" t="n">
-        <v>2460.286126448012</v>
+        <v>2612.07270505964</v>
       </c>
       <c r="AC2" t="n">
-        <v>2225.479871573079</v>
+        <v>2362.780152155815</v>
       </c>
       <c r="AD2" t="n">
-        <v>1798133.897368188</v>
+        <v>1909069.202507331</v>
       </c>
       <c r="AE2" t="n">
-        <v>2460286.126448011</v>
+        <v>2612072.70505964</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.008184640491907e-06</v>
+        <v>1.880950280259113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.82769097222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2225479.871573078</v>
+        <v>2362780.152155815</v>
       </c>
     </row>
     <row r="3">
@@ -26543,28 +26543,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1274.505548569977</v>
+        <v>1366.937412710168</v>
       </c>
       <c r="AB3" t="n">
-        <v>1743.834718769928</v>
+        <v>1870.304073092586</v>
       </c>
       <c r="AC3" t="n">
-        <v>1577.405580697925</v>
+        <v>1691.804877344882</v>
       </c>
       <c r="AD3" t="n">
-        <v>1274505.548569978</v>
+        <v>1366937.412710168</v>
       </c>
       <c r="AE3" t="n">
-        <v>1743834.718769928</v>
+        <v>1870304.073092586</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.231860361804492e-06</v>
+        <v>2.298257679908436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.68489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1577405.580697925</v>
+        <v>1691804.877344882</v>
       </c>
     </row>
     <row r="4">
@@ -26649,28 +26649,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1134.786679013373</v>
+        <v>1218.052163508659</v>
       </c>
       <c r="AB4" t="n">
-        <v>1552.665197481087</v>
+        <v>1666.592706781458</v>
       </c>
       <c r="AC4" t="n">
-        <v>1404.481010212783</v>
+        <v>1507.535437923789</v>
       </c>
       <c r="AD4" t="n">
-        <v>1134786.679013373</v>
+        <v>1218052.163508659</v>
       </c>
       <c r="AE4" t="n">
-        <v>1552665.197481087</v>
+        <v>1666592.706781458</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.310555186467336e-06</v>
+        <v>2.44507706850009e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.56293402777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1404481.010212783</v>
+        <v>1507535.437923789</v>
       </c>
     </row>
     <row r="5">
@@ -26755,28 +26755,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1065.573002244031</v>
+        <v>1139.586855748392</v>
       </c>
       <c r="AB5" t="n">
-        <v>1457.96399143336</v>
+        <v>1559.233011058793</v>
       </c>
       <c r="AC5" t="n">
-        <v>1318.817954356274</v>
+        <v>1410.422000880617</v>
       </c>
       <c r="AD5" t="n">
-        <v>1065573.002244031</v>
+        <v>1139586.855748392</v>
       </c>
       <c r="AE5" t="n">
-        <v>1457963.99143336</v>
+        <v>1559233.011058793</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.351069233665727e-06</v>
+        <v>2.520663330551319e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.03559027777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1318817.954356274</v>
+        <v>1410422.000880617</v>
       </c>
     </row>
     <row r="6">
@@ -26861,28 +26861,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1007.738025610881</v>
+        <v>1090.918169251596</v>
       </c>
       <c r="AB6" t="n">
-        <v>1378.831624904791</v>
+        <v>1492.642367082964</v>
       </c>
       <c r="AC6" t="n">
-        <v>1247.237869826217</v>
+        <v>1350.186674505284</v>
       </c>
       <c r="AD6" t="n">
-        <v>1007738.025610881</v>
+        <v>1090918.169251596</v>
       </c>
       <c r="AE6" t="n">
-        <v>1378831.624904791</v>
+        <v>1492642.367082964</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.375356450441726e-06</v>
+        <v>2.565975513822867e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.73394097222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1247237.869826217</v>
+        <v>1350186.674505284</v>
       </c>
     </row>
     <row r="7">
@@ -26967,28 +26967,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>969.3233487517956</v>
+        <v>1052.50349239251</v>
       </c>
       <c r="AB7" t="n">
-        <v>1326.270969290256</v>
+        <v>1440.081711468428</v>
       </c>
       <c r="AC7" t="n">
-        <v>1199.693529414189</v>
+        <v>1302.642334093257</v>
       </c>
       <c r="AD7" t="n">
-        <v>969323.3487517956</v>
+        <v>1052503.49239251</v>
       </c>
       <c r="AE7" t="n">
-        <v>1326270.969290256</v>
+        <v>1440081.711468428</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.39147722314894e-06</v>
+        <v>2.596051722806603e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.54079861111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1199693.52941419</v>
+        <v>1302642.334093257</v>
       </c>
     </row>
     <row r="8">
@@ -27073,28 +27073,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>954.8567293231498</v>
+        <v>1028.785241972939</v>
       </c>
       <c r="AB8" t="n">
-        <v>1306.477102365777</v>
+        <v>1407.629354869012</v>
       </c>
       <c r="AC8" t="n">
-        <v>1181.788761368116</v>
+        <v>1273.28718486052</v>
       </c>
       <c r="AD8" t="n">
-        <v>954856.7293231498</v>
+        <v>1028785.241972939</v>
       </c>
       <c r="AE8" t="n">
-        <v>1306477.102365777</v>
+        <v>1407629.354869012</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.397734628344503e-06</v>
+        <v>2.607726040767395e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.46701388888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1181788.761368116</v>
+        <v>1273287.184860521</v>
       </c>
     </row>
   </sheetData>
@@ -50927,28 +50927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1397.064799210107</v>
+        <v>1486.733115183585</v>
       </c>
       <c r="AB2" t="n">
-        <v>1911.52569242829</v>
+        <v>2034.213838230111</v>
       </c>
       <c r="AC2" t="n">
-        <v>1729.092363186092</v>
+        <v>1840.071324546482</v>
       </c>
       <c r="AD2" t="n">
-        <v>1397064.799210107</v>
+        <v>1486733.115183585</v>
       </c>
       <c r="AE2" t="n">
-        <v>1911525.69242829</v>
+        <v>2034213.838230111</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.129263797807689e-06</v>
+        <v>2.171616160359917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.08289930555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1729092.363186092</v>
+        <v>1840071.324546482</v>
       </c>
     </row>
     <row r="3">
@@ -51033,28 +51033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1041.471497735797</v>
+        <v>1130.969042491581</v>
       </c>
       <c r="AB3" t="n">
-        <v>1424.987249681858</v>
+        <v>1547.441738769735</v>
       </c>
       <c r="AC3" t="n">
-        <v>1288.988466554387</v>
+        <v>1399.756071069672</v>
       </c>
       <c r="AD3" t="n">
-        <v>1041471.497735797</v>
+        <v>1130969.042491581</v>
       </c>
       <c r="AE3" t="n">
-        <v>1424987.249681858</v>
+        <v>1547441.738769735</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.324221707912057e-06</v>
+        <v>2.546527451233285e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.97960069444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1288988.466554387</v>
+        <v>1399756.071069672</v>
       </c>
     </row>
     <row r="4">
@@ -51139,28 +51139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>940.563685115902</v>
+        <v>1012.298355796395</v>
       </c>
       <c r="AB4" t="n">
-        <v>1286.920728716813</v>
+        <v>1385.07126985218</v>
       </c>
       <c r="AC4" t="n">
-        <v>1164.098820572667</v>
+        <v>1252.882011817223</v>
       </c>
       <c r="AD4" t="n">
-        <v>940563.685115902</v>
+        <v>1012298.355796395</v>
       </c>
       <c r="AE4" t="n">
-        <v>1286920.728716813</v>
+        <v>1385071.26985218</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.39257217386311e-06</v>
+        <v>2.677967931939029e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.09635416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1164098.820572667</v>
+        <v>1252882.011817223</v>
       </c>
     </row>
     <row r="5">
@@ -51245,28 +51245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>871.1570238112921</v>
+        <v>951.7730867751551</v>
       </c>
       <c r="AB5" t="n">
-        <v>1191.955472714055</v>
+        <v>1302.257926590902</v>
       </c>
       <c r="AC5" t="n">
-        <v>1078.196915318238</v>
+        <v>1177.972257807545</v>
       </c>
       <c r="AD5" t="n">
-        <v>871157.0238112921</v>
+        <v>951773.086775155</v>
       </c>
       <c r="AE5" t="n">
-        <v>1191955.472714055</v>
+        <v>1302257.926590902</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.426253703633533e-06</v>
+        <v>2.742738762720191e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.69270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1078196.915318238</v>
+        <v>1177972.257807545</v>
       </c>
     </row>
     <row r="6">
@@ -51351,28 +51351,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>864.1599741014589</v>
+        <v>944.7760370653216</v>
       </c>
       <c r="AB6" t="n">
-        <v>1182.381800613014</v>
+        <v>1292.684254489861</v>
       </c>
       <c r="AC6" t="n">
-        <v>1069.536941045787</v>
+        <v>1169.312283535094</v>
       </c>
       <c r="AD6" t="n">
-        <v>864159.9741014589</v>
+        <v>944776.0370653216</v>
       </c>
       <c r="AE6" t="n">
-        <v>1182381.800613014</v>
+        <v>1292684.254489861</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.432068430271423e-06</v>
+        <v>2.753920697675896e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.62543402777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1069536.941045787</v>
+        <v>1169312.283535094</v>
       </c>
     </row>
   </sheetData>
@@ -51648,28 +51648,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>778.3660757339965</v>
+        <v>853.8994251388996</v>
       </c>
       <c r="AB2" t="n">
-        <v>1064.994803906985</v>
+        <v>1168.342864858967</v>
       </c>
       <c r="AC2" t="n">
-        <v>963.3531945516966</v>
+        <v>1056.837861616336</v>
       </c>
       <c r="AD2" t="n">
-        <v>778366.0757339965</v>
+        <v>853899.4251388996</v>
       </c>
       <c r="AE2" t="n">
-        <v>1064994.803906985</v>
+        <v>1168342.864858967</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.39138426809934e-06</v>
+        <v>2.869868247136495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.36588541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>963353.1945516965</v>
+        <v>1056837.861616336</v>
       </c>
     </row>
     <row r="3">
@@ -51754,28 +51754,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>687.7909070637631</v>
+        <v>763.2389156140946</v>
       </c>
       <c r="AB3" t="n">
-        <v>941.0658622379458</v>
+        <v>1044.297156067731</v>
       </c>
       <c r="AC3" t="n">
-        <v>851.2518571401886</v>
+        <v>944.6309011728897</v>
       </c>
       <c r="AD3" t="n">
-        <v>687790.9070637631</v>
+        <v>763238.9156140946</v>
       </c>
       <c r="AE3" t="n">
-        <v>941065.8622379458</v>
+        <v>1044297.156067731</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.473341229050351e-06</v>
+        <v>3.038912619175002e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>851251.8571401886</v>
+        <v>944630.9011728897</v>
       </c>
     </row>
   </sheetData>
@@ -52051,28 +52051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3322.961351715433</v>
+        <v>3471.529400413672</v>
       </c>
       <c r="AB2" t="n">
-        <v>4546.622320125733</v>
+        <v>4749.899678714402</v>
       </c>
       <c r="AC2" t="n">
-        <v>4112.699067117266</v>
+        <v>4296.575919903789</v>
       </c>
       <c r="AD2" t="n">
-        <v>3322961.351715433</v>
+        <v>3471529.400413672</v>
       </c>
       <c r="AE2" t="n">
-        <v>4546622.320125734</v>
+        <v>4749899.678714402</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.397564469890942e-07</v>
+        <v>1.299722895613425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>4112699.067117266</v>
+        <v>4296575.91990379</v>
       </c>
     </row>
     <row r="3">
@@ -52157,28 +52157,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1946.244377495935</v>
+        <v>2055.171522313425</v>
       </c>
       <c r="AB3" t="n">
-        <v>2662.937419532021</v>
+        <v>2811.976344597782</v>
       </c>
       <c r="AC3" t="n">
-        <v>2408.790409668025</v>
+        <v>2543.605268902956</v>
       </c>
       <c r="AD3" t="n">
-        <v>1946244.377495935</v>
+        <v>2055171.522313425</v>
       </c>
       <c r="AE3" t="n">
-        <v>2662937.419532021</v>
+        <v>2811976.344597782</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.024156955362963e-06</v>
+        <v>1.799403369858842e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.86588541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2408790.409668026</v>
+        <v>2543605.268902956</v>
       </c>
     </row>
     <row r="4">
@@ -52263,28 +52263,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1657.309242340965</v>
+        <v>1756.326161188267</v>
       </c>
       <c r="AB4" t="n">
-        <v>2267.60362069446</v>
+        <v>2403.082937379497</v>
       </c>
       <c r="AC4" t="n">
-        <v>2051.18671373705</v>
+        <v>2173.736074584083</v>
       </c>
       <c r="AD4" t="n">
-        <v>1657309.242340965</v>
+        <v>1756326.161188267</v>
       </c>
       <c r="AE4" t="n">
-        <v>2267603.620694459</v>
+        <v>2403082.937379497</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.129231519917991e-06</v>
+        <v>1.984015234824167e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.92578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2051186.71373705</v>
+        <v>2173736.074584083</v>
       </c>
     </row>
     <row r="5">
@@ -52369,28 +52369,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1535.530749047238</v>
+        <v>1624.637531432904</v>
       </c>
       <c r="AB5" t="n">
-        <v>2100.980913682029</v>
+        <v>2222.900744455892</v>
       </c>
       <c r="AC5" t="n">
-        <v>1900.466244025448</v>
+        <v>2010.75021726581</v>
       </c>
       <c r="AD5" t="n">
-        <v>1535530.749047238</v>
+        <v>1624637.531432904</v>
       </c>
       <c r="AE5" t="n">
-        <v>2100980.913682029</v>
+        <v>2222900.744455892</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.184969292681013e-06</v>
+        <v>2.081944302837638e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.03385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1900466.244025448</v>
+        <v>2010750.21726581</v>
       </c>
     </row>
     <row r="6">
@@ -52475,28 +52475,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1456.550102368745</v>
+        <v>1545.742136100431</v>
       </c>
       <c r="AB6" t="n">
-        <v>1992.916108516299</v>
+        <v>2114.952583942811</v>
       </c>
       <c r="AC6" t="n">
-        <v>1802.714992194828</v>
+        <v>1913.104477685903</v>
       </c>
       <c r="AD6" t="n">
-        <v>1456550.102368745</v>
+        <v>1545742.136100431</v>
       </c>
       <c r="AE6" t="n">
-        <v>1992916.108516299</v>
+        <v>2114952.583942811</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.217663533948369e-06</v>
+        <v>2.139386795029286e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.54991319444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1802714.992194828</v>
+        <v>1913104.477685903</v>
       </c>
     </row>
     <row r="7">
@@ -52581,28 +52581,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1409.22733231613</v>
+        <v>1498.248773847225</v>
       </c>
       <c r="AB7" t="n">
-        <v>1928.167006797043</v>
+        <v>2049.970070448708</v>
       </c>
       <c r="AC7" t="n">
-        <v>1744.145453867723</v>
+        <v>1854.323804076147</v>
       </c>
       <c r="AD7" t="n">
-        <v>1409227.33231613</v>
+        <v>1498248.773847225</v>
       </c>
       <c r="AE7" t="n">
-        <v>1928167.006797043</v>
+        <v>2049970.070448708</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.239820775771126e-06</v>
+        <v>2.178316194857963e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.23741319444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1744145.453867723</v>
+        <v>1854323.804076147</v>
       </c>
     </row>
     <row r="8">
@@ -52687,28 +52687,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1371.357695502084</v>
+        <v>1450.639592772135</v>
       </c>
       <c r="AB8" t="n">
-        <v>1876.3520990176</v>
+        <v>1984.829088532937</v>
       </c>
       <c r="AC8" t="n">
-        <v>1697.275688164071</v>
+        <v>1795.399786048474</v>
       </c>
       <c r="AD8" t="n">
-        <v>1371357.695502084</v>
+        <v>1450639.592772135</v>
       </c>
       <c r="AE8" t="n">
-        <v>1876352.0990176</v>
+        <v>1984829.088532937</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.256561802926097e-06</v>
+        <v>2.207729519172963e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.00737847222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1697275.68816407</v>
+        <v>1795399.786048474</v>
       </c>
     </row>
     <row r="9">
@@ -52793,28 +52793,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1329.484442812824</v>
+        <v>1418.591135689939</v>
       </c>
       <c r="AB9" t="n">
-        <v>1819.059267370623</v>
+        <v>1940.978975674937</v>
       </c>
       <c r="AC9" t="n">
-        <v>1645.450803958486</v>
+        <v>1755.734666417622</v>
       </c>
       <c r="AD9" t="n">
-        <v>1329484.442812824</v>
+        <v>1418591.135689939</v>
       </c>
       <c r="AE9" t="n">
-        <v>1819059.267370623</v>
+        <v>1940978.975674937</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.270053101280398e-06</v>
+        <v>2.231433198179758e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.82725694444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1645450.803958486</v>
+        <v>1755734.666417622</v>
       </c>
     </row>
     <row r="10">
@@ -52899,28 +52899,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1304.323291992141</v>
+        <v>1393.429984869256</v>
       </c>
       <c r="AB10" t="n">
-        <v>1784.632670786132</v>
+        <v>1906.552379090446</v>
       </c>
       <c r="AC10" t="n">
-        <v>1614.309833433987</v>
+        <v>1724.593695893124</v>
       </c>
       <c r="AD10" t="n">
-        <v>1304323.291992141</v>
+        <v>1393429.984869256</v>
       </c>
       <c r="AE10" t="n">
-        <v>1784632.670786132</v>
+        <v>1906552.379090446</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.279408381161117e-06</v>
+        <v>2.247870055885199e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.70355902777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1614309.833433988</v>
+        <v>1724593.695893124</v>
       </c>
     </row>
     <row r="11">
@@ -53005,28 +53005,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1280.774746427027</v>
+        <v>1369.881439304142</v>
       </c>
       <c r="AB11" t="n">
-        <v>1752.412511855434</v>
+        <v>1874.332220159748</v>
       </c>
       <c r="AC11" t="n">
-        <v>1585.164721250358</v>
+        <v>1695.448583709494</v>
       </c>
       <c r="AD11" t="n">
-        <v>1280774.746427027</v>
+        <v>1369881.439304142</v>
       </c>
       <c r="AE11" t="n">
-        <v>1752412.511855434</v>
+        <v>1874332.220159748</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.287483464847633e-06</v>
+        <v>2.262057659378316e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.59939236111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1585164.721250358</v>
+        <v>1695448.583709494</v>
       </c>
     </row>
     <row r="12">
@@ -53111,28 +53111,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1258.610914544292</v>
+        <v>1347.717607421406</v>
       </c>
       <c r="AB12" t="n">
-        <v>1722.086979274222</v>
+        <v>1844.006687578536</v>
       </c>
       <c r="AC12" t="n">
-        <v>1557.733414936545</v>
+        <v>1668.017277395681</v>
       </c>
       <c r="AD12" t="n">
-        <v>1258610.914544292</v>
+        <v>1347717.607421407</v>
       </c>
       <c r="AE12" t="n">
-        <v>1722086.979274222</v>
+        <v>1844006.687578536</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.294278352339945e-06</v>
+        <v>2.273996008659111e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.51041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1557733.414936545</v>
+        <v>1668017.277395681</v>
       </c>
     </row>
     <row r="13">
@@ -53217,28 +53217,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1240.349622038564</v>
+        <v>1319.546178454042</v>
       </c>
       <c r="AB13" t="n">
-        <v>1697.101073236518</v>
+        <v>1805.461295629657</v>
       </c>
       <c r="AC13" t="n">
-        <v>1535.13212870314</v>
+        <v>1633.150603555605</v>
       </c>
       <c r="AD13" t="n">
-        <v>1240349.622038564</v>
+        <v>1319546.178454042</v>
       </c>
       <c r="AE13" t="n">
-        <v>1697101.073236518</v>
+        <v>1805461.295629657</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.298709800704496e-06</v>
+        <v>2.281781888624847e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.45616319444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>1535132.12870314</v>
+        <v>1633150.603555605</v>
       </c>
     </row>
     <row r="14">
@@ -53323,28 +53323,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1219.613588826788</v>
+        <v>1298.810145242267</v>
       </c>
       <c r="AB14" t="n">
-        <v>1668.729117786945</v>
+        <v>1777.089340180084</v>
       </c>
       <c r="AC14" t="n">
-        <v>1509.467952861385</v>
+        <v>1607.486427713851</v>
       </c>
       <c r="AD14" t="n">
-        <v>1219613.588826788</v>
+        <v>1298810.145242267</v>
       </c>
       <c r="AE14" t="n">
-        <v>1668729.117786945</v>
+        <v>1777089.340180085</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.304421445263251e-06</v>
+        <v>2.291817022802905e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.38237847222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>1509467.952861385</v>
+        <v>1607486.427713851</v>
       </c>
     </row>
     <row r="15">
@@ -53429,28 +53429,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1202.835863255938</v>
+        <v>1282.032419671417</v>
       </c>
       <c r="AB15" t="n">
-        <v>1645.773093479896</v>
+        <v>1754.133315873035</v>
       </c>
       <c r="AC15" t="n">
-        <v>1488.702819295218</v>
+        <v>1586.721294147683</v>
       </c>
       <c r="AD15" t="n">
-        <v>1202835.863255939</v>
+        <v>1282032.419671417</v>
       </c>
       <c r="AE15" t="n">
-        <v>1645773.093479896</v>
+        <v>1754133.315873035</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.307966603954892e-06</v>
+        <v>2.298045726775494e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.33897569444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>1488702.819295218</v>
+        <v>1586721.294147684</v>
       </c>
     </row>
     <row r="16">
@@ -53535,28 +53535,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1187.744568427936</v>
+        <v>1266.941124843414</v>
       </c>
       <c r="AB16" t="n">
-        <v>1625.124518115283</v>
+        <v>1733.484740508422</v>
       </c>
       <c r="AC16" t="n">
-        <v>1470.024914982946</v>
+        <v>1568.043389835412</v>
       </c>
       <c r="AD16" t="n">
-        <v>1187744.568427935</v>
+        <v>1266941.124843414</v>
       </c>
       <c r="AE16" t="n">
-        <v>1625124.518115283</v>
+        <v>1733484.740508422</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.31111785612524e-06</v>
+        <v>2.303582352528905e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.29991319444444</v>
       </c>
       <c r="AH16" t="n">
-        <v>1470024.914982946</v>
+        <v>1568043.389835411</v>
       </c>
     </row>
     <row r="17">
@@ -53641,28 +53641,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1193.872731868961</v>
+        <v>1273.06928828444</v>
       </c>
       <c r="AB17" t="n">
-        <v>1633.509341690785</v>
+        <v>1741.869564083924</v>
       </c>
       <c r="AC17" t="n">
-        <v>1477.609502764576</v>
+        <v>1575.627977617042</v>
       </c>
       <c r="AD17" t="n">
-        <v>1193872.731868961</v>
+        <v>1273069.28828444</v>
       </c>
       <c r="AE17" t="n">
-        <v>1633509.341690785</v>
+        <v>1741869.564083924</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.310723949603946e-06</v>
+        <v>2.302890274309729e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.30425347222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>1477609.502764576</v>
+        <v>1575627.977617042</v>
       </c>
     </row>
   </sheetData>
@@ -53938,28 +53938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4817.826336940674</v>
+        <v>4992.125500725719</v>
       </c>
       <c r="AB2" t="n">
-        <v>6591.962541699744</v>
+        <v>6830.446347126862</v>
       </c>
       <c r="AC2" t="n">
-        <v>5962.834888597206</v>
+        <v>6178.558134348474</v>
       </c>
       <c r="AD2" t="n">
-        <v>4817826.336940674</v>
+        <v>4992125.500725718</v>
       </c>
       <c r="AE2" t="n">
-        <v>6591962.541699744</v>
+        <v>6830446.347126862</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.039131461692324e-07</v>
+        <v>1.032624178421691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.1015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>5962834.888597206</v>
+        <v>6178558.134348474</v>
       </c>
     </row>
     <row r="3">
@@ -54044,28 +54044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2441.935209001415</v>
+        <v>2564.774157215239</v>
       </c>
       <c r="AB3" t="n">
-        <v>3341.163483534106</v>
+        <v>3509.237151752191</v>
       </c>
       <c r="AC3" t="n">
-        <v>3022.287530017886</v>
+        <v>3174.320483234105</v>
       </c>
       <c r="AD3" t="n">
-        <v>2441935.209001415</v>
+        <v>2564774.157215239</v>
       </c>
       <c r="AE3" t="n">
-        <v>3341163.483534106</v>
+        <v>3509237.151752191</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.159286120090243e-07</v>
+        <v>1.566135853256782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.48480902777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>3022287.530017886</v>
+        <v>3174320.483234105</v>
       </c>
     </row>
     <row r="4">
@@ -54150,28 +54150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2010.994162796481</v>
+        <v>2123.660455583909</v>
       </c>
       <c r="AB4" t="n">
-        <v>2751.530932339148</v>
+        <v>2905.685924616946</v>
       </c>
       <c r="AC4" t="n">
-        <v>2488.928681954618</v>
+        <v>2628.371338127313</v>
       </c>
       <c r="AD4" t="n">
-        <v>2010994.162796481</v>
+        <v>2123660.455583909</v>
       </c>
       <c r="AE4" t="n">
-        <v>2751530.932339149</v>
+        <v>2905685.924616946</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.03445273513369e-06</v>
+        <v>1.768798895187752e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.90885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2488928.681954618</v>
+        <v>2628371.338127313</v>
       </c>
     </row>
     <row r="5">
@@ -54256,28 +54256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1833.138110050372</v>
+        <v>1935.631836919956</v>
       </c>
       <c r="AB5" t="n">
-        <v>2508.18043451665</v>
+        <v>2648.416873323718</v>
       </c>
       <c r="AC5" t="n">
-        <v>2268.80321409973</v>
+        <v>2395.655684010129</v>
       </c>
       <c r="AD5" t="n">
-        <v>1833138.110050372</v>
+        <v>1935631.836919956</v>
       </c>
       <c r="AE5" t="n">
-        <v>2508180.43451665</v>
+        <v>2648416.873323719</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.096703995958174e-06</v>
+        <v>1.875241613767989e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.77821180555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>2268803.21409973</v>
+        <v>2395655.684010129</v>
       </c>
     </row>
     <row r="6">
@@ -54362,28 +54362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1735.663940989423</v>
+        <v>1827.899850595143</v>
       </c>
       <c r="AB6" t="n">
-        <v>2374.811976150618</v>
+        <v>2501.013216834308</v>
       </c>
       <c r="AC6" t="n">
-        <v>2148.163254216345</v>
+        <v>2262.320025613738</v>
       </c>
       <c r="AD6" t="n">
-        <v>1735663.940989423</v>
+        <v>1827899.850595143</v>
       </c>
       <c r="AE6" t="n">
-        <v>2374811.976150618</v>
+        <v>2501013.216834309</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.136370195690848e-06</v>
+        <v>1.943066394814543e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.12282986111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>2148163.254216345</v>
+        <v>2262320.025613738</v>
       </c>
     </row>
     <row r="7">
@@ -54468,28 +54468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1662.468165103961</v>
+        <v>1754.789326055701</v>
       </c>
       <c r="AB7" t="n">
-        <v>2274.662286414401</v>
+        <v>2400.98017175074</v>
       </c>
       <c r="AC7" t="n">
-        <v>2057.571710307579</v>
+        <v>2171.833993955684</v>
       </c>
       <c r="AD7" t="n">
-        <v>1662468.165103961</v>
+        <v>1754789.326055701</v>
       </c>
       <c r="AE7" t="n">
-        <v>2274662.286414401</v>
+        <v>2400980.17175074</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.163035751013531e-06</v>
+        <v>1.988661522742968e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2057571.710307579</v>
+        <v>2171833.993955684</v>
       </c>
     </row>
     <row r="8">
@@ -54574,28 +54574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1617.811006104911</v>
+        <v>1709.961574856059</v>
       </c>
       <c r="AB8" t="n">
-        <v>2213.560391337091</v>
+        <v>2339.644864898583</v>
       </c>
       <c r="AC8" t="n">
-        <v>2002.3012943394</v>
+        <v>2116.352442704854</v>
       </c>
       <c r="AD8" t="n">
-        <v>1617811.006104911</v>
+        <v>1709961.574856059</v>
       </c>
       <c r="AE8" t="n">
-        <v>2213560.391337091</v>
+        <v>2339644.864898583</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.182014793947825e-06</v>
+        <v>2.021113571090601e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.42404513888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>2002301.2943394</v>
+        <v>2116352.442704854</v>
       </c>
     </row>
     <row r="9">
@@ -54680,28 +54680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1579.524202738431</v>
+        <v>1671.674771489578</v>
       </c>
       <c r="AB9" t="n">
-        <v>2161.174697876518</v>
+        <v>2287.259171438011</v>
       </c>
       <c r="AC9" t="n">
-        <v>1954.915217938921</v>
+        <v>2068.966366304375</v>
       </c>
       <c r="AD9" t="n">
-        <v>1579524.202738431</v>
+        <v>1671674.771489579</v>
       </c>
       <c r="AE9" t="n">
-        <v>2161174.697876518</v>
+        <v>2287259.17143801</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.197672504368617e-06</v>
+        <v>2.047886510977398e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.19401041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1954915.217938921</v>
+        <v>2068966.366304375</v>
       </c>
     </row>
     <row r="10">
@@ -54786,28 +54786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1552.319898872145</v>
+        <v>1634.383242560021</v>
       </c>
       <c r="AB10" t="n">
-        <v>2123.952569157484</v>
+        <v>2236.235256370444</v>
       </c>
       <c r="AC10" t="n">
-        <v>1921.245516943246</v>
+        <v>2022.812102078343</v>
       </c>
       <c r="AD10" t="n">
-        <v>1552319.898872145</v>
+        <v>1634383.242560021</v>
       </c>
       <c r="AE10" t="n">
-        <v>2123952.569157484</v>
+        <v>2236235.256370444</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.208680349270508e-06</v>
+        <v>2.066708699019026e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.03776041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1921245.516943246</v>
+        <v>2022812.102078343</v>
       </c>
     </row>
     <row r="11">
@@ -54892,28 +54892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1517.190006662871</v>
+        <v>1609.425826760039</v>
       </c>
       <c r="AB11" t="n">
-        <v>2075.886300815291</v>
+        <v>2202.087419029433</v>
       </c>
       <c r="AC11" t="n">
-        <v>1877.7666257902</v>
+        <v>1991.923286406367</v>
       </c>
       <c r="AD11" t="n">
-        <v>1517190.006662871</v>
+        <v>1609425.826760039</v>
       </c>
       <c r="AE11" t="n">
-        <v>2075886.300815291</v>
+        <v>2202087.419029432</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.217980080308312e-06</v>
+        <v>2.082610202709367e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.90755208333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1877766.6257902</v>
+        <v>1991923.286406367</v>
       </c>
     </row>
     <row r="12">
@@ -54998,28 +54998,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1495.774587638862</v>
+        <v>1588.010407736031</v>
       </c>
       <c r="AB12" t="n">
-        <v>2046.584779725034</v>
+        <v>2172.785897939176</v>
       </c>
       <c r="AC12" t="n">
-        <v>1851.261600747855</v>
+        <v>1965.418261364021</v>
       </c>
       <c r="AD12" t="n">
-        <v>1495774.587638862</v>
+        <v>1588010.407736031</v>
       </c>
       <c r="AE12" t="n">
-        <v>2046584.779725034</v>
+        <v>2172785.897939176</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.225761487911373e-06</v>
+        <v>2.095915542531896e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.80121527777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1851261.600747855</v>
+        <v>1965418.261364021</v>
       </c>
     </row>
     <row r="13">
@@ -55104,28 +55104,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1478.903920745619</v>
+        <v>1571.139740842788</v>
       </c>
       <c r="AB13" t="n">
-        <v>2023.501589000404</v>
+        <v>2149.702707214546</v>
       </c>
       <c r="AC13" t="n">
-        <v>1830.381437348522</v>
+        <v>1944.538097964688</v>
       </c>
       <c r="AD13" t="n">
-        <v>1478903.920745619</v>
+        <v>1571139.740842788</v>
       </c>
       <c r="AE13" t="n">
-        <v>2023501.589000404</v>
+        <v>2149702.707214546</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.231550096006332e-06</v>
+        <v>2.105813417277924e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.72092013888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1830381.437348522</v>
+        <v>1944538.097964688</v>
       </c>
     </row>
     <row r="14">
@@ -55210,28 +55210,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1460.912261135597</v>
+        <v>1553.148081232765</v>
       </c>
       <c r="AB14" t="n">
-        <v>1998.884606585969</v>
+        <v>2125.085724800111</v>
       </c>
       <c r="AC14" t="n">
-        <v>1808.113865185569</v>
+        <v>1922.270525801735</v>
       </c>
       <c r="AD14" t="n">
-        <v>1460912.261135597</v>
+        <v>1553148.081232765</v>
       </c>
       <c r="AE14" t="n">
-        <v>1998884.606585969</v>
+        <v>2125085.724800111</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.23724380888662e-06</v>
+        <v>2.115549031782214e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.64496527777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>1808113.865185569</v>
+        <v>1922270.525801735</v>
       </c>
     </row>
     <row r="15">
@@ -55316,28 +55316,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1444.301513250345</v>
+        <v>1536.537333347514</v>
       </c>
       <c r="AB15" t="n">
-        <v>1976.15704851489</v>
+        <v>2102.358166729032</v>
       </c>
       <c r="AC15" t="n">
-        <v>1787.555393358466</v>
+        <v>1901.712053974632</v>
       </c>
       <c r="AD15" t="n">
-        <v>1444301.513250345</v>
+        <v>1536537.333347514</v>
       </c>
       <c r="AE15" t="n">
-        <v>1976157.04851489</v>
+        <v>2102358.166729032</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.242178360049537e-06</v>
+        <v>2.123986564352599e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.57769097222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>1787555.393358466</v>
+        <v>1901712.053974631</v>
       </c>
     </row>
     <row r="16">
@@ -55422,28 +55422,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1429.126247498092</v>
+        <v>1521.36206759526</v>
       </c>
       <c r="AB16" t="n">
-        <v>1955.393580427182</v>
+        <v>2081.594698641324</v>
       </c>
       <c r="AC16" t="n">
-        <v>1768.773561523338</v>
+        <v>1882.930222139504</v>
       </c>
       <c r="AD16" t="n">
-        <v>1429126.247498092</v>
+        <v>1521362.06759526</v>
       </c>
       <c r="AE16" t="n">
-        <v>1955393.580427182</v>
+        <v>2081594.698641323</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.245784378207053e-06</v>
+        <v>2.130152453538649e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.52994791666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1768773.561523338</v>
+        <v>1882930.222139504</v>
       </c>
     </row>
     <row r="17">
@@ -55528,28 +55528,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1414.439651092896</v>
+        <v>1496.4176539262</v>
       </c>
       <c r="AB17" t="n">
-        <v>1935.298731298688</v>
+        <v>2047.464651389452</v>
       </c>
       <c r="AC17" t="n">
-        <v>1750.59653659237</v>
+        <v>1852.057498695528</v>
       </c>
       <c r="AD17" t="n">
-        <v>1414439.651092896</v>
+        <v>1496417.6539262</v>
       </c>
       <c r="AE17" t="n">
-        <v>1935298.731298688</v>
+        <v>2047464.651389452</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.249580186793911e-06</v>
+        <v>2.136642863208175e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.48003472222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>1750596.53659237</v>
+        <v>1852057.498695528</v>
       </c>
     </row>
     <row r="18">
@@ -55634,28 +55634,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1399.818779324341</v>
+        <v>1481.796782157645</v>
       </c>
       <c r="AB18" t="n">
-        <v>1915.293809517613</v>
+        <v>2027.459729608377</v>
       </c>
       <c r="AC18" t="n">
-        <v>1732.500856468996</v>
+        <v>1833.961818572155</v>
       </c>
       <c r="AD18" t="n">
-        <v>1399818.779324341</v>
+        <v>1481796.782157645</v>
       </c>
       <c r="AE18" t="n">
-        <v>1915293.809517613</v>
+        <v>2027459.729608377</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.253091309736756e-06</v>
+        <v>2.142646492152488e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.43446180555556</v>
       </c>
       <c r="AH18" t="n">
-        <v>1732500.856468996</v>
+        <v>1833961.818572155</v>
       </c>
     </row>
     <row r="19">
@@ -55740,28 +55740,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1387.066904137017</v>
+        <v>1469.04490697032</v>
       </c>
       <c r="AB19" t="n">
-        <v>1897.846131313286</v>
+        <v>2010.01205140405</v>
       </c>
       <c r="AC19" t="n">
-        <v>1716.71836018452</v>
+        <v>1818.179322287679</v>
       </c>
       <c r="AD19" t="n">
-        <v>1387066.904137017</v>
+        <v>1469044.90697032</v>
       </c>
       <c r="AE19" t="n">
-        <v>1897846.131313286</v>
+        <v>2010012.05140405</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.255558585318214e-06</v>
+        <v>2.14686525843768e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.40190972222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>1716718.36018452</v>
+        <v>1818179.322287679</v>
       </c>
     </row>
     <row r="20">
@@ -55846,28 +55846,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1372.905937679521</v>
+        <v>1454.883940512825</v>
       </c>
       <c r="AB20" t="n">
-        <v>1878.470472268393</v>
+        <v>1990.636392359156</v>
       </c>
       <c r="AC20" t="n">
-        <v>1699.191886844963</v>
+        <v>1800.652848948122</v>
       </c>
       <c r="AD20" t="n">
-        <v>1372905.937679521</v>
+        <v>1454883.940512825</v>
       </c>
       <c r="AE20" t="n">
-        <v>1878470.472268393</v>
+        <v>1990636.392359156</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.259259498690401e-06</v>
+        <v>2.153193407865469e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1699191.886844963</v>
+        <v>1800652.848948122</v>
       </c>
     </row>
     <row r="21">
@@ -55952,28 +55952,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1357.973698204469</v>
+        <v>1439.951701037773</v>
       </c>
       <c r="AB21" t="n">
-        <v>1858.039523454714</v>
+        <v>1970.205443545478</v>
       </c>
       <c r="AC21" t="n">
-        <v>1680.710839111045</v>
+        <v>1782.171801214204</v>
       </c>
       <c r="AD21" t="n">
-        <v>1357973.698204469</v>
+        <v>1439951.701037773</v>
       </c>
       <c r="AE21" t="n">
-        <v>1858039.523454714</v>
+        <v>1970205.443545478</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.261631879057188e-06</v>
+        <v>2.157249913908923e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.32161458333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1680710.839111045</v>
+        <v>1782171.801214204</v>
       </c>
     </row>
     <row r="22">
@@ -56058,28 +56058,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1350.736853542671</v>
+        <v>1432.714856375974</v>
       </c>
       <c r="AB22" t="n">
-        <v>1848.137753321388</v>
+        <v>1960.303673412151</v>
       </c>
       <c r="AC22" t="n">
-        <v>1671.754080022022</v>
+        <v>1773.21504212518</v>
       </c>
       <c r="AD22" t="n">
-        <v>1350736.853542671</v>
+        <v>1432714.856375974</v>
       </c>
       <c r="AE22" t="n">
-        <v>1848137.753321388</v>
+        <v>1960303.673412151</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.262485935989231e-06</v>
+        <v>2.158710256084566e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.31076388888889</v>
       </c>
       <c r="AH22" t="n">
-        <v>1671754.080022022</v>
+        <v>1773215.04212518</v>
       </c>
     </row>
     <row r="23">
@@ -56164,28 +56164,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1338.122640778189</v>
+        <v>1420.100643611493</v>
       </c>
       <c r="AB23" t="n">
-        <v>1830.878430917232</v>
+        <v>1943.044351007996</v>
       </c>
       <c r="AC23" t="n">
-        <v>1656.141963124508</v>
+        <v>1757.602925227667</v>
       </c>
       <c r="AD23" t="n">
-        <v>1338122.640778189</v>
+        <v>1420100.643611493</v>
       </c>
       <c r="AE23" t="n">
-        <v>1830878.430917233</v>
+        <v>1943044.351007996</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.265237897214704e-06</v>
+        <v>2.163415803094973e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.27604166666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>1656141.963124508</v>
+        <v>1757602.925227667</v>
       </c>
     </row>
     <row r="24">
@@ -56270,28 +56270,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1340.232461766896</v>
+        <v>1422.2104646002</v>
       </c>
       <c r="AB24" t="n">
-        <v>1833.765181072715</v>
+        <v>1945.931101163479</v>
       </c>
       <c r="AC24" t="n">
-        <v>1658.753205896731</v>
+        <v>1760.214167999889</v>
       </c>
       <c r="AD24" t="n">
-        <v>1340232.461766897</v>
+        <v>1422210.4646002</v>
       </c>
       <c r="AE24" t="n">
-        <v>1833765.181072715</v>
+        <v>1945931.101163479</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.264858316356018e-06</v>
+        <v>2.16276676212802e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.28038194444444</v>
       </c>
       <c r="AH24" t="n">
-        <v>1658753.205896731</v>
+        <v>1760214.167999889</v>
       </c>
     </row>
     <row r="25">
@@ -56376,28 +56376,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1345.580924309259</v>
+        <v>1427.558927142563</v>
       </c>
       <c r="AB25" t="n">
-        <v>1841.083183480691</v>
+        <v>1953.249103571454</v>
       </c>
       <c r="AC25" t="n">
-        <v>1665.37278842577</v>
+        <v>1766.833750528928</v>
       </c>
       <c r="AD25" t="n">
-        <v>1345580.924309259</v>
+        <v>1427558.927142563</v>
       </c>
       <c r="AE25" t="n">
-        <v>1841083.183480691</v>
+        <v>1953249.103571454</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.264858316356018e-06</v>
+        <v>2.16276676212802e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.28038194444444</v>
       </c>
       <c r="AH25" t="n">
-        <v>1665372.78842577</v>
+        <v>1766833.750528928</v>
       </c>
     </row>
   </sheetData>
@@ -56673,28 +56673,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>599.0483397816542</v>
+        <v>672.2044446363589</v>
       </c>
       <c r="AB2" t="n">
-        <v>819.6443666368064</v>
+        <v>919.7397767185796</v>
       </c>
       <c r="AC2" t="n">
-        <v>741.4186586630824</v>
+        <v>831.9611032914416</v>
       </c>
       <c r="AD2" t="n">
-        <v>599048.3397816543</v>
+        <v>672204.4446363589</v>
       </c>
       <c r="AE2" t="n">
-        <v>819644.3666368064</v>
+        <v>919739.7767185796</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.458096239493503e-06</v>
+        <v>3.12537182645432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.14887152777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>741418.6586630824</v>
+        <v>831961.1032914417</v>
       </c>
     </row>
   </sheetData>
@@ -56970,28 +56970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2016.283929386459</v>
+        <v>2128.822857087413</v>
       </c>
       <c r="AB2" t="n">
-        <v>2758.768624355589</v>
+        <v>2912.74935010312</v>
       </c>
       <c r="AC2" t="n">
-        <v>2495.475618803173</v>
+        <v>2634.760640198667</v>
       </c>
       <c r="AD2" t="n">
-        <v>2016283.92938646</v>
+        <v>2128822.857087412</v>
       </c>
       <c r="AE2" t="n">
-        <v>2758768.624355589</v>
+        <v>2912749.35010312</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.553426982041268e-07</v>
+        <v>1.76015446934535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.74131944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2495475.618803173</v>
+        <v>2634760.640198667</v>
       </c>
     </row>
     <row r="3">
@@ -57076,28 +57076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1391.121277394743</v>
+        <v>1475.525562679009</v>
       </c>
       <c r="AB3" t="n">
-        <v>1903.393503670833</v>
+        <v>2018.879170451029</v>
       </c>
       <c r="AC3" t="n">
-        <v>1721.736299110049</v>
+        <v>1826.200175937894</v>
       </c>
       <c r="AD3" t="n">
-        <v>1391121.277394743</v>
+        <v>1475525.562679009</v>
       </c>
       <c r="AE3" t="n">
-        <v>1903393.503670833</v>
+        <v>2018879.170451029</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.191957496227772e-06</v>
+        <v>2.196101271511183e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.02777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1721736.299110048</v>
+        <v>1826200.175937894</v>
       </c>
     </row>
     <row r="4">
@@ -57182,28 +57182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1225.20971061147</v>
+        <v>1309.613906387185</v>
       </c>
       <c r="AB4" t="n">
-        <v>1676.385978496216</v>
+        <v>1791.871522806865</v>
       </c>
       <c r="AC4" t="n">
-        <v>1516.394053531035</v>
+        <v>1620.857819577654</v>
       </c>
       <c r="AD4" t="n">
-        <v>1225209.71061147</v>
+        <v>1309613.906387185</v>
       </c>
       <c r="AE4" t="n">
-        <v>1676385.978496216</v>
+        <v>1791871.522806864</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.274626358964832e-06</v>
+        <v>2.348413073857991e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.79296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1516394.053531035</v>
+        <v>1620857.819577654</v>
       </c>
     </row>
     <row r="5">
@@ -57288,28 +57288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1148.952271914138</v>
+        <v>1233.18587548926</v>
       </c>
       <c r="AB5" t="n">
-        <v>1572.047186629767</v>
+        <v>1687.299319165568</v>
       </c>
       <c r="AC5" t="n">
-        <v>1422.013209519906</v>
+        <v>1526.265840283874</v>
       </c>
       <c r="AD5" t="n">
-        <v>1148952.271914138</v>
+        <v>1233185.87548926</v>
       </c>
       <c r="AE5" t="n">
-        <v>1572047.186629767</v>
+        <v>1687299.319165568</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.318207794819894e-06</v>
+        <v>2.428708929203906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.20703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1422013.209519906</v>
+        <v>1526265.840283874</v>
       </c>
     </row>
     <row r="6">
@@ -57394,28 +57394,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1089.212628011761</v>
+        <v>1173.531482932904</v>
       </c>
       <c r="AB6" t="n">
-        <v>1490.308770315452</v>
+        <v>1605.677547503903</v>
       </c>
       <c r="AC6" t="n">
-        <v>1348.075792938041</v>
+        <v>1452.433935952722</v>
       </c>
       <c r="AD6" t="n">
-        <v>1089212.628011761</v>
+        <v>1173531.482932904</v>
       </c>
       <c r="AE6" t="n">
-        <v>1490308.770315452</v>
+        <v>1605677.547503903</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.344022218455866e-06</v>
+        <v>2.476270263185779e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1348075.792938041</v>
+        <v>1452433.935952722</v>
       </c>
     </row>
     <row r="7">
@@ -57500,28 +57500,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1048.74723281095</v>
+        <v>1133.066087732093</v>
       </c>
       <c r="AB7" t="n">
-        <v>1434.94223139446</v>
+        <v>1550.311008582911</v>
       </c>
       <c r="AC7" t="n">
-        <v>1297.993358784243</v>
+        <v>1402.351501798923</v>
       </c>
       <c r="AD7" t="n">
-        <v>1048747.23281095</v>
+        <v>1133066.087732093</v>
       </c>
       <c r="AE7" t="n">
-        <v>1434942.23139446</v>
+        <v>1550311.008582911</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.362729837204202e-06</v>
+        <v>2.510737788622035e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.64279513888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1297993.358784243</v>
+        <v>1402351.501798923</v>
       </c>
     </row>
     <row r="8">
@@ -57606,28 +57606,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1016.458878106915</v>
+        <v>1100.777733028058</v>
       </c>
       <c r="AB8" t="n">
-        <v>1390.763880026723</v>
+        <v>1506.132657215173</v>
       </c>
       <c r="AC8" t="n">
-        <v>1258.031327266337</v>
+        <v>1362.389470281018</v>
       </c>
       <c r="AD8" t="n">
-        <v>1016458.878106915</v>
+        <v>1100777.733028057</v>
       </c>
       <c r="AE8" t="n">
-        <v>1390763.880026723</v>
+        <v>1506132.657215173</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.374435162901485e-06</v>
+        <v>2.532304061520699e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.50173611111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1258031.327266337</v>
+        <v>1362389.470281017</v>
       </c>
     </row>
     <row r="9">
@@ -57712,28 +57712,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>997.2192627056558</v>
+        <v>1072.15996316027</v>
       </c>
       <c r="AB9" t="n">
-        <v>1364.439389442794</v>
+        <v>1466.976561955165</v>
       </c>
       <c r="AC9" t="n">
-        <v>1234.219209117084</v>
+        <v>1326.970377796699</v>
       </c>
       <c r="AD9" t="n">
-        <v>997219.2627056558</v>
+        <v>1072159.96316027</v>
       </c>
       <c r="AE9" t="n">
-        <v>1364439.389442794</v>
+        <v>1466976.561955165</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.381541967789121e-06</v>
+        <v>2.545397870066316e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.41710069444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1234219.209117084</v>
+        <v>1326970.3777967</v>
       </c>
     </row>
     <row r="10">
@@ -57818,28 +57818,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1003.503401568021</v>
+        <v>1078.444102022635</v>
       </c>
       <c r="AB10" t="n">
-        <v>1373.037625470922</v>
+        <v>1475.574797983293</v>
       </c>
       <c r="AC10" t="n">
-        <v>1241.996841566387</v>
+        <v>1334.748010246003</v>
       </c>
       <c r="AD10" t="n">
-        <v>1003503.401568021</v>
+        <v>1078444.102022636</v>
       </c>
       <c r="AE10" t="n">
-        <v>1373037.625470922</v>
+        <v>1475574.797983293</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.381123920442789e-06</v>
+        <v>2.54462764603422e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.42144097222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1241996.841566387</v>
+        <v>1334748.010246003</v>
       </c>
     </row>
   </sheetData>
@@ -58115,28 +58115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2746.088386099395</v>
+        <v>2881.995744617457</v>
       </c>
       <c r="AB2" t="n">
-        <v>3757.319278730744</v>
+        <v>3943.273722464662</v>
       </c>
       <c r="AC2" t="n">
-        <v>3398.726000199269</v>
+        <v>3566.933212811914</v>
       </c>
       <c r="AD2" t="n">
-        <v>2746088.386099395</v>
+        <v>2881995.744617457</v>
       </c>
       <c r="AE2" t="n">
-        <v>3757319.278730744</v>
+        <v>3943273.722464662</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.184633914535558e-07</v>
+        <v>1.462125118780756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.6796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3398726.000199269</v>
+        <v>3566933.212811914</v>
       </c>
     </row>
     <row r="3">
@@ -58221,28 +58221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1722.176840348713</v>
+        <v>1819.229231411715</v>
       </c>
       <c r="AB3" t="n">
-        <v>2356.358330045111</v>
+        <v>2489.149693146821</v>
       </c>
       <c r="AC3" t="n">
-        <v>2131.470798195292</v>
+        <v>2251.588739976425</v>
       </c>
       <c r="AD3" t="n">
-        <v>1722176.840348713</v>
+        <v>1819229.231411715</v>
       </c>
       <c r="AE3" t="n">
-        <v>2356358.330045111</v>
+        <v>2489149.693146822</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.086622346238868e-06</v>
+        <v>1.941171521725275e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.09548611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>2131470.798195292</v>
+        <v>2251588.739976425</v>
       </c>
     </row>
     <row r="4">
@@ -58327,28 +58327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1490.033364490432</v>
+        <v>1577.371991312533</v>
       </c>
       <c r="AB4" t="n">
-        <v>2038.729384928463</v>
+        <v>2158.229947254738</v>
       </c>
       <c r="AC4" t="n">
-        <v>1844.155913805553</v>
+        <v>1952.251510183501</v>
       </c>
       <c r="AD4" t="n">
-        <v>1490033.364490432</v>
+        <v>1577371.991312533</v>
       </c>
       <c r="AE4" t="n">
-        <v>2038729.384928463</v>
+        <v>2158229.947254738</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.182817453471422e-06</v>
+        <v>2.113017060642708e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.46137152777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1844155.913805553</v>
+        <v>1952251.510183501</v>
       </c>
     </row>
     <row r="5">
@@ -58433,28 +58433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1378.900718555778</v>
+        <v>1466.324596723899</v>
       </c>
       <c r="AB5" t="n">
-        <v>1886.672795934354</v>
+        <v>2006.290002913279</v>
       </c>
       <c r="AC5" t="n">
-        <v>1706.611392252279</v>
+        <v>1814.812500880939</v>
       </c>
       <c r="AD5" t="n">
-        <v>1378900.718555778</v>
+        <v>1466324.596723899</v>
       </c>
       <c r="AE5" t="n">
-        <v>1886672.795934354</v>
+        <v>2006290.002913279</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.23383305950375e-06</v>
+        <v>2.20415271778825e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.69748263888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1706611.392252279</v>
+        <v>1814812.500880939</v>
       </c>
     </row>
     <row r="6">
@@ -58539,28 +58539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1319.750855776017</v>
+        <v>1407.004141743546</v>
       </c>
       <c r="AB6" t="n">
-        <v>1805.741344171309</v>
+        <v>1925.125139375386</v>
       </c>
       <c r="AC6" t="n">
-        <v>1633.403924657492</v>
+        <v>1741.393898003501</v>
       </c>
       <c r="AD6" t="n">
-        <v>1319750.855776017</v>
+        <v>1407004.141743546</v>
       </c>
       <c r="AE6" t="n">
-        <v>1805741.344171309</v>
+        <v>1925125.139375386</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.263717941143989e-06</v>
+        <v>2.257539877891261e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.27864583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1633403.924657492</v>
+        <v>1741393.898003501</v>
       </c>
     </row>
     <row r="7">
@@ -58645,28 +58645,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1276.056051118429</v>
+        <v>1353.766254554199</v>
       </c>
       <c r="AB7" t="n">
-        <v>1745.956184760064</v>
+        <v>1852.282713433101</v>
       </c>
       <c r="AC7" t="n">
-        <v>1579.324576951459</v>
+        <v>1675.503450958161</v>
       </c>
       <c r="AD7" t="n">
-        <v>1276056.051118429</v>
+        <v>1353766.254554199</v>
       </c>
       <c r="AE7" t="n">
-        <v>1745956.184760064</v>
+        <v>1852282.713433101</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.284144308056341e-06</v>
+        <v>2.294030091699042e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.00520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1579324.576951459</v>
+        <v>1675503.450958161</v>
       </c>
     </row>
     <row r="8">
@@ -58751,28 +58751,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1231.342441499237</v>
+        <v>1318.680978812787</v>
       </c>
       <c r="AB8" t="n">
-        <v>1684.77705145385</v>
+        <v>1804.277491310577</v>
       </c>
       <c r="AC8" t="n">
-        <v>1523.984294262537</v>
+        <v>1632.079779859259</v>
       </c>
       <c r="AD8" t="n">
-        <v>1231342.441499237</v>
+        <v>1318680.978812787</v>
       </c>
       <c r="AE8" t="n">
-        <v>1684777.05145385</v>
+        <v>1804277.491310577</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.299640172610539e-06</v>
+        <v>2.321712322863566e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.80121527777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1523984.294262537</v>
+        <v>1632079.779859259</v>
       </c>
     </row>
     <row r="9">
@@ -58857,28 +58857,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1202.801737775255</v>
+        <v>1290.140275088805</v>
       </c>
       <c r="AB9" t="n">
-        <v>1645.726401491715</v>
+        <v>1765.226841348441</v>
       </c>
       <c r="AC9" t="n">
-        <v>1488.660583524857</v>
+        <v>1596.756069121578</v>
       </c>
       <c r="AD9" t="n">
-        <v>1202801.737775255</v>
+        <v>1290140.275088805</v>
       </c>
       <c r="AE9" t="n">
-        <v>1645726.401491715</v>
+        <v>1765226.841348442</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.310608024795004e-06</v>
+        <v>2.341305590376118e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.66232638888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1488660.583524857</v>
+        <v>1596756.069121578</v>
       </c>
     </row>
     <row r="10">
@@ -58963,28 +58963,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1175.400835341579</v>
+        <v>1262.739372655129</v>
       </c>
       <c r="AB10" t="n">
-        <v>1608.23527793946</v>
+        <v>1727.735717796187</v>
       </c>
       <c r="AC10" t="n">
-        <v>1454.747560185306</v>
+        <v>1562.843045782028</v>
       </c>
       <c r="AD10" t="n">
-        <v>1175400.835341579</v>
+        <v>1262739.372655129</v>
       </c>
       <c r="AE10" t="n">
-        <v>1608235.27793946</v>
+        <v>1727735.717796187</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.320569652008417e-06</v>
+        <v>2.359101310410455e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.53645833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1454747.560185306</v>
+        <v>1562843.045782028</v>
       </c>
     </row>
     <row r="11">
@@ -59069,28 +59069,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1152.423718859664</v>
+        <v>1230.048581440863</v>
       </c>
       <c r="AB11" t="n">
-        <v>1576.796973490067</v>
+        <v>1683.006735040906</v>
       </c>
       <c r="AC11" t="n">
-        <v>1426.309683388626</v>
+        <v>1522.382934363389</v>
       </c>
       <c r="AD11" t="n">
-        <v>1152423.718859664</v>
+        <v>1230048.581440863</v>
       </c>
       <c r="AE11" t="n">
-        <v>1576796.973490067</v>
+        <v>1683006.735040906</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.327009491823149e-06</v>
+        <v>2.370605614271037e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.45616319444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>1426309.683388626</v>
+        <v>1522382.934363389</v>
       </c>
     </row>
     <row r="12">
@@ -59175,28 +59175,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1128.938338809875</v>
+        <v>1206.563201391073</v>
       </c>
       <c r="AB12" t="n">
-        <v>1544.663240404102</v>
+        <v>1650.873001954941</v>
       </c>
       <c r="AC12" t="n">
-        <v>1397.242748688408</v>
+        <v>1493.315999663171</v>
       </c>
       <c r="AD12" t="n">
-        <v>1128938.338809875</v>
+        <v>1206563.201391073</v>
       </c>
       <c r="AE12" t="n">
-        <v>1544663.240404102</v>
+        <v>1650873.001954941</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.333650576632091e-06</v>
+        <v>2.382469427627261e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.37369791666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1397242.748688408</v>
+        <v>1493315.999663171</v>
       </c>
     </row>
     <row r="13">
@@ -59281,28 +59281,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1113.928857308716</v>
+        <v>1191.553719889914</v>
       </c>
       <c r="AB13" t="n">
-        <v>1524.126605642625</v>
+        <v>1630.336367193464</v>
       </c>
       <c r="AC13" t="n">
-        <v>1378.666101525218</v>
+        <v>1474.739352499982</v>
       </c>
       <c r="AD13" t="n">
-        <v>1113928.857308716</v>
+        <v>1191553.719889914</v>
       </c>
       <c r="AE13" t="n">
-        <v>1524126.605642625</v>
+        <v>1630336.367193464</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.336367384053931e-06</v>
+        <v>2.387322805818444e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.34114583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1378666.101525218</v>
+        <v>1474739.352499982</v>
       </c>
     </row>
     <row r="14">
@@ -59387,28 +59387,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1116.849305168384</v>
+        <v>1194.474167749583</v>
       </c>
       <c r="AB14" t="n">
-        <v>1528.122491245291</v>
+        <v>1634.33225279613</v>
       </c>
       <c r="AC14" t="n">
-        <v>1382.280625414227</v>
+        <v>1478.35387638899</v>
       </c>
       <c r="AD14" t="n">
-        <v>1116849.305168384</v>
+        <v>1194474.167749583</v>
       </c>
       <c r="AE14" t="n">
-        <v>1528122.491245291</v>
+        <v>1634332.25279613</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.337474231522088e-06</v>
+        <v>2.389300108044481e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.32595486111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>1382280.625414227</v>
+        <v>1478353.87638899</v>
       </c>
     </row>
   </sheetData>
